--- a/IERP_RH/resources/templates/nominaTemplate.xlsx
+++ b/IERP_RH/resources/templates/nominaTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Chavez\Documents\NetBeansProjects\IERP-EQ3-RH-8B\IERP_RH\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c8dd5bdf926d5b7/Escritorio/IERP-EQ3-RH-8B/IERP_RH/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{04DA5284-CB5B-4210-9A4E-4A7F2774A6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:40009_{04DA5284-CB5B-4210-9A4E-4A7F2774A6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D89B3F4-D6B9-4589-9929-21FE4AEF7449}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="660" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo Nómina" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Modelo Nómina'!$B$2:$V$74</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -76,9 +65,6 @@
   </si>
   <si>
     <t>Firma y sello de la empresa</t>
-  </si>
-  <si>
-    <t>RECIBÍ</t>
   </si>
   <si>
     <t>…………………………………………………………………………………</t>
@@ -128,20 +114,23 @@
   <si>
     <t>Codigo Nomina</t>
   </si>
+  <si>
+    <t>Recibio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm;@"/>
-    <numFmt numFmtId="171" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="173" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm;@"/>
+    <numFmt numFmtId="165" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,20 +260,40 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="48"/>
-      <color rgb="FF5D94A0"/>
-      <name val="Lato"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="24"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="30"/>
+      <color theme="6" tint="0.79998168889431442"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="30"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +315,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,9 +522,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -557,29 +584,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -590,13 +604,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,28 +658,69 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,120 +736,125 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="9" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,19 +863,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1156,68 +1205,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="24.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="50" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="60.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="60.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="36" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="26" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="25.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25.7109375" style="1" customWidth="1"/>
     <col min="22" max="22" width="5" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="335.25" customHeight="1"/>
     <row r="2" spans="1:37" ht="96" customHeight="1">
-      <c r="B2" s="61"/>
-      <c r="C2" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="61"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="53"/>
     </row>
     <row r="3" spans="1:37" ht="63.75" customHeight="1" thickBot="1">
       <c r="B3" s="24"/>
@@ -1244,161 +1293,161 @@
     </row>
     <row r="4" spans="1:37" ht="14.25" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="28"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="81"/>
     </row>
     <row r="5" spans="1:37" ht="53.25" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="30" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="31"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="83"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="81"/>
-      <c r="AF5" s="81"/>
-      <c r="AG5" s="81"/>
-      <c r="AH5" s="81"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
     </row>
     <row r="6" spans="1:37" ht="60" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="31"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="83"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="81"/>
-      <c r="AE6" s="81"/>
-      <c r="AF6" s="81"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="81"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="94"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
     </row>
     <row r="7" spans="1:37" ht="54" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="30" t="s">
+      <c r="D7" s="82"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="30"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="31"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="83"/>
     </row>
     <row r="8" spans="1:37" ht="60" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="31"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="83"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
@@ -1408,35 +1457,35 @@
     </row>
     <row r="9" spans="1:37" ht="54.75" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="30" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="63"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="T9" s="25"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="31"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="83"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
@@ -1447,27 +1496,27 @@
     </row>
     <row r="10" spans="1:37" ht="60" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="31"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="83"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Z10" s="10"/>
@@ -1481,27 +1530,27 @@
     </row>
     <row r="11" spans="1:37" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="38"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Z11" s="10"/>
@@ -1509,7 +1558,7 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:37" ht="61.8" thickBot="1">
+    <row r="12" spans="1:37" ht="62.25" thickBot="1">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1525,128 +1574,128 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13" spans="1:37" ht="11.25" customHeight="1">
-      <c r="B13" s="69"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="28"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="27"/>
     </row>
     <row r="14" spans="1:37" ht="53.25" customHeight="1">
-      <c r="B14" s="68"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="33">
         <v>43831</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="T14" s="121"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="31"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="133"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="28"/>
     </row>
     <row r="15" spans="1:37" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B15" s="70"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="38"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="30"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
     </row>
-    <row r="16" spans="1:37" ht="25.2" thickBot="1">
+    <row r="16" spans="1:37" ht="26.25" thickBot="1">
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
     </row>
     <row r="17" spans="2:37" ht="16.5" customHeight="1">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="51"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="43"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
     </row>
-    <row r="18" spans="2:37" ht="37.799999999999997">
-      <c r="B18" s="52"/>
-      <c r="C18" s="53" t="s">
+    <row r="18" spans="2:37" ht="37.5">
+      <c r="B18" s="44"/>
+      <c r="C18" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -1659,17 +1708,17 @@
       <c r="S18" s="23"/>
       <c r="T18" s="23"/>
       <c r="U18" s="23"/>
-      <c r="V18" s="55"/>
+      <c r="V18" s="47"/>
     </row>
     <row r="19" spans="2:37" ht="23.25" customHeight="1">
-      <c r="B19" s="52"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
@@ -1682,19 +1731,19 @@
       <c r="S19" s="23"/>
       <c r="T19" s="23"/>
       <c r="U19" s="23"/>
-      <c r="V19" s="55"/>
-    </row>
-    <row r="20" spans="2:37" ht="37.799999999999997">
-      <c r="B20" s="52"/>
-      <c r="C20" s="53" t="s">
+      <c r="V19" s="47"/>
+    </row>
+    <row r="20" spans="2:37" ht="37.5">
+      <c r="B20" s="44"/>
+      <c r="C20" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
@@ -1707,17 +1756,17 @@
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
-      <c r="V20" s="55"/>
+      <c r="V20" s="47"/>
     </row>
     <row r="21" spans="2:37" ht="27.75" customHeight="1">
-      <c r="B21" s="52"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
@@ -1730,34 +1779,34 @@
       <c r="S21" s="23"/>
       <c r="T21" s="23"/>
       <c r="U21" s="23"/>
-      <c r="V21" s="55"/>
-    </row>
-    <row r="22" spans="2:37" ht="44.4">
-      <c r="B22" s="52"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
+      <c r="V21" s="47"/>
+    </row>
+    <row r="22" spans="2:37" ht="44.25">
+      <c r="B22" s="44"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="127"/>
       <c r="S22" s="23"/>
       <c r="T22" s="23"/>
       <c r="U22" s="23"/>
-      <c r="V22" s="55"/>
+      <c r="V22" s="47"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
@@ -1768,27 +1817,27 @@
       <c r="AK22" s="2"/>
     </row>
     <row r="23" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B23" s="52"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="57"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="49"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="103"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
       <c r="S23" s="23"/>
       <c r="T23" s="23"/>
       <c r="U23" s="23"/>
-      <c r="V23" s="55"/>
+      <c r="V23" s="47"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
@@ -1799,29 +1848,29 @@
       <c r="AK23" s="2"/>
     </row>
     <row r="24" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B24" s="52"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="93"/>
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
       <c r="U24" s="23"/>
-      <c r="V24" s="55"/>
+      <c r="V24" s="47"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
@@ -1832,31 +1881,31 @@
       <c r="AK24" s="2"/>
     </row>
     <row r="25" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B25" s="52"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="104">
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="93">
         <v>0</v>
       </c>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
       <c r="S25" s="23"/>
       <c r="T25" s="23"/>
       <c r="U25" s="23"/>
-      <c r="V25" s="55"/>
+      <c r="V25" s="47"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
@@ -1867,31 +1916,31 @@
       <c r="AK25" s="2"/>
     </row>
     <row r="26" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B26" s="52"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="23"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="104">
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="93">
         <v>0</v>
       </c>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="93"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
       <c r="U26" s="23"/>
-      <c r="V26" s="55"/>
+      <c r="V26" s="47"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
@@ -1902,246 +1951,246 @@
       <c r="AK26" s="2"/>
     </row>
     <row r="27" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B27" s="52"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="104">
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="93">
         <v>0</v>
       </c>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="93"/>
       <c r="S27" s="23"/>
       <c r="T27" s="23"/>
       <c r="U27" s="23"/>
-      <c r="V27" s="55"/>
+      <c r="V27" s="47"/>
     </row>
     <row r="28" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B28" s="52"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="104">
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="93">
         <v>0</v>
       </c>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="93"/>
+      <c r="R28" s="93"/>
       <c r="S28" s="23"/>
       <c r="T28" s="23"/>
       <c r="U28" s="23"/>
-      <c r="V28" s="55"/>
+      <c r="V28" s="47"/>
     </row>
     <row r="29" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B29" s="52"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="23"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="104">
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="124"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="93">
         <v>0</v>
       </c>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
       <c r="S29" s="23"/>
       <c r="T29" s="23"/>
       <c r="U29" s="23"/>
-      <c r="V29" s="55"/>
+      <c r="V29" s="47"/>
     </row>
     <row r="30" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B30" s="58"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="104">
+      <c r="B30" s="50"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="93">
         <v>0</v>
       </c>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
       <c r="S30" s="23"/>
       <c r="T30" s="23"/>
       <c r="U30" s="23"/>
-      <c r="V30" s="55"/>
+      <c r="V30" s="47"/>
     </row>
     <row r="31" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B31" s="58"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="104">
+      <c r="B31" s="50"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="124"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
+      <c r="M31" s="124"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="93">
         <v>0</v>
       </c>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="93"/>
       <c r="S31" s="23"/>
       <c r="T31" s="23"/>
       <c r="U31" s="23"/>
-      <c r="V31" s="55"/>
+      <c r="V31" s="47"/>
     </row>
     <row r="32" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B32" s="58"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="104">
+      <c r="B32" s="50"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="124"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="93">
         <v>0</v>
       </c>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="93"/>
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
       <c r="U32" s="23"/>
-      <c r="V32" s="55"/>
+      <c r="V32" s="47"/>
     </row>
     <row r="33" spans="2:22" ht="52.5" customHeight="1">
-      <c r="B33" s="58"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="104">
+      <c r="B33" s="50"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="124"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="93">
         <v>0</v>
       </c>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
       <c r="S33" s="23"/>
       <c r="T33" s="23"/>
       <c r="U33" s="23"/>
-      <c r="V33" s="55"/>
+      <c r="V33" s="47"/>
     </row>
     <row r="34" spans="2:22" ht="52.5" customHeight="1">
-      <c r="B34" s="58"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="104">
+      <c r="B34" s="50"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="124"/>
+      <c r="M34" s="124"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="93">
         <v>0</v>
       </c>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93"/>
       <c r="S34" s="23"/>
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
-      <c r="V34" s="55"/>
+      <c r="V34" s="47"/>
     </row>
     <row r="35" spans="2:22" ht="27.75" customHeight="1">
-      <c r="B35" s="58"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
       <c r="S35" s="23"/>
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
-      <c r="V35" s="55"/>
+      <c r="V35" s="47"/>
     </row>
     <row r="36" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B36" s="52"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
@@ -2161,38 +2210,38 @@
       <c r="S36" s="23"/>
       <c r="T36" s="23"/>
       <c r="U36" s="23"/>
-      <c r="V36" s="55"/>
+      <c r="V36" s="47"/>
     </row>
     <row r="37" spans="2:22" ht="46.5" customHeight="1">
-      <c r="B37" s="52"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
-      <c r="I37" s="54"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
       <c r="M37" s="23"/>
-      <c r="N37" s="60"/>
+      <c r="N37" s="52"/>
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="62" t="s">
+      <c r="Q37" s="53"/>
+      <c r="R37" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="S37" s="105">
+      <c r="S37" s="119">
         <f>SUM(O22:R35)</f>
         <v>0</v>
       </c>
-      <c r="T37" s="105"/>
-      <c r="U37" s="105"/>
-      <c r="V37" s="55"/>
+      <c r="T37" s="119"/>
+      <c r="U37" s="119"/>
+      <c r="V37" s="47"/>
     </row>
     <row r="38" spans="2:22" ht="15" customHeight="1">
-      <c r="B38" s="52"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
@@ -2212,19 +2261,19 @@
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
       <c r="U38" s="23"/>
-      <c r="V38" s="55"/>
-    </row>
-    <row r="39" spans="2:22" ht="37.799999999999997">
-      <c r="B39" s="52"/>
-      <c r="C39" s="53" t="s">
+      <c r="V38" s="47"/>
+    </row>
+    <row r="39" spans="2:22" ht="37.5">
+      <c r="B39" s="44"/>
+      <c r="C39" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
@@ -2237,17 +2286,17 @@
       <c r="S39" s="23"/>
       <c r="T39" s="23"/>
       <c r="U39" s="23"/>
-      <c r="V39" s="55"/>
+      <c r="V39" s="47"/>
     </row>
     <row r="40" spans="2:22" ht="26.25" customHeight="1">
-      <c r="B40" s="52"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
@@ -2260,46 +2309,46 @@
       <c r="S40" s="23"/>
       <c r="T40" s="23"/>
       <c r="U40" s="23"/>
-      <c r="V40" s="55"/>
-    </row>
-    <row r="41" spans="2:22" ht="44.4">
-      <c r="B41" s="52"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="114" t="s">
+      <c r="V40" s="47"/>
+    </row>
+    <row r="41" spans="2:22" ht="44.25">
+      <c r="B41" s="44"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="113" t="s">
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="L41" s="119"/>
-      <c r="M41" s="119"/>
-      <c r="N41" s="119"/>
-      <c r="O41" s="114" t="s">
-        <v>25</v>
-      </c>
-      <c r="P41" s="114"/>
-      <c r="Q41" s="114"/>
-      <c r="R41" s="114"/>
+      <c r="P41" s="131"/>
+      <c r="Q41" s="131"/>
+      <c r="R41" s="131"/>
       <c r="S41" s="23"/>
       <c r="T41" s="23"/>
       <c r="U41" s="23"/>
-      <c r="V41" s="55"/>
+      <c r="V41" s="47"/>
     </row>
     <row r="42" spans="2:22" ht="18" customHeight="1">
-      <c r="B42" s="52"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
@@ -2312,225 +2361,225 @@
       <c r="S42" s="23"/>
       <c r="T42" s="23"/>
       <c r="U42" s="23"/>
-      <c r="V42" s="55"/>
+      <c r="V42" s="47"/>
     </row>
     <row r="43" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B43" s="52"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
       <c r="J43" s="23"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
-      <c r="Q43" s="80"/>
-      <c r="R43" s="80"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="M43" s="98"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="121"/>
+      <c r="P43" s="121"/>
+      <c r="Q43" s="121"/>
+      <c r="R43" s="121"/>
       <c r="S43" s="23"/>
       <c r="T43" s="23"/>
       <c r="U43" s="23"/>
-      <c r="V43" s="55"/>
+      <c r="V43" s="47"/>
     </row>
     <row r="44" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B44" s="52"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="80"/>
-      <c r="R44" s="80"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44" s="98"/>
+      <c r="N44" s="98"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="121"/>
+      <c r="Q44" s="121"/>
+      <c r="R44" s="121"/>
       <c r="S44" s="23"/>
       <c r="T44" s="23"/>
       <c r="U44" s="23"/>
-      <c r="V44" s="55"/>
+      <c r="V44" s="47"/>
     </row>
     <row r="45" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B45" s="52"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="80"/>
-      <c r="R45" s="80"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" s="98"/>
+      <c r="N45" s="98"/>
+      <c r="O45" s="121"/>
+      <c r="P45" s="121"/>
+      <c r="Q45" s="121"/>
+      <c r="R45" s="121"/>
       <c r="S45" s="23"/>
       <c r="T45" s="23"/>
       <c r="U45" s="23"/>
-      <c r="V45" s="55"/>
+      <c r="V45" s="47"/>
     </row>
     <row r="46" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B46" s="52"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
-      <c r="Q46" s="80"/>
-      <c r="R46" s="80"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" s="98"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="121"/>
+      <c r="P46" s="121"/>
+      <c r="Q46" s="121"/>
+      <c r="R46" s="121"/>
       <c r="S46" s="23"/>
       <c r="T46" s="23"/>
       <c r="U46" s="23"/>
-      <c r="V46" s="55"/>
+      <c r="V46" s="47"/>
     </row>
     <row r="47" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B47" s="52"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="80"/>
-      <c r="R47" s="80"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="M47" s="98"/>
+      <c r="N47" s="98"/>
+      <c r="O47" s="121"/>
+      <c r="P47" s="121"/>
+      <c r="Q47" s="121"/>
+      <c r="R47" s="121"/>
       <c r="S47" s="23"/>
       <c r="T47" s="23"/>
       <c r="U47" s="23"/>
-      <c r="V47" s="55"/>
+      <c r="V47" s="47"/>
     </row>
     <row r="48" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B48" s="52"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="54"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="46"/>
       <c r="L48" s="23"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="60" t="s">
+      <c r="M48" s="48"/>
+      <c r="N48" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="O48" s="106">
+      <c r="O48" s="120">
         <f>SUM(O43:R47)</f>
         <v>0</v>
       </c>
-      <c r="P48" s="106"/>
-      <c r="Q48" s="106"/>
-      <c r="R48" s="106"/>
+      <c r="P48" s="120"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="120"/>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
       <c r="U48" s="23"/>
-      <c r="V48" s="55"/>
+      <c r="V48" s="47"/>
     </row>
     <row r="49" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B49" s="52"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="54"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="46"/>
       <c r="L49" s="23"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
       <c r="P49" s="23"/>
       <c r="Q49" s="23"/>
       <c r="R49" s="23"/>
       <c r="S49" s="23"/>
       <c r="T49" s="23"/>
       <c r="U49" s="23"/>
-      <c r="V49" s="55"/>
+      <c r="V49" s="47"/>
     </row>
     <row r="50" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B50" s="52"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="107"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="108"/>
-      <c r="P50" s="108"/>
-      <c r="Q50" s="108"/>
-      <c r="R50" s="108"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="98"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="126"/>
+      <c r="P50" s="126"/>
+      <c r="Q50" s="126"/>
+      <c r="R50" s="126"/>
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
       <c r="U50" s="23"/>
-      <c r="V50" s="55"/>
+      <c r="V50" s="47"/>
     </row>
     <row r="51" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B51" s="52"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="95"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="95"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="74" t="s">
+      <c r="B51" s="44"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="79"/>
+      <c r="R51" s="79" t="s">
         <v>11</v>
       </c>
       <c r="S51" s="122">
@@ -2539,68 +2588,68 @@
       </c>
       <c r="T51" s="122"/>
       <c r="U51" s="122"/>
-      <c r="V51" s="55"/>
+      <c r="V51" s="47"/>
     </row>
     <row r="52" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B52" s="52"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="95"/>
-      <c r="K52" s="95"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="71"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="71"/>
-      <c r="T52" s="71"/>
-      <c r="U52" s="71"/>
-      <c r="V52" s="55"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="111"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="78"/>
+      <c r="P52" s="78"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="78"/>
+      <c r="S52" s="78"/>
+      <c r="T52" s="78"/>
+      <c r="U52" s="78"/>
+      <c r="V52" s="47"/>
     </row>
     <row r="53" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B53" s="52"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="95"/>
-      <c r="K53" s="95"/>
-      <c r="L53" s="95"/>
-      <c r="M53" s="95"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="111"/>
+      <c r="K53" s="111"/>
+      <c r="L53" s="111"/>
+      <c r="M53" s="111"/>
       <c r="N53" s="23"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="74"/>
-      <c r="R53" s="74" t="s">
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="79"/>
+      <c r="R53" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="S53" s="123">
+      <c r="S53" s="118">
         <f>S37-S51</f>
         <v>0</v>
       </c>
-      <c r="T53" s="123"/>
-      <c r="U53" s="123"/>
-      <c r="V53" s="55"/>
+      <c r="T53" s="118"/>
+      <c r="U53" s="118"/>
+      <c r="V53" s="47"/>
     </row>
     <row r="54" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B54" s="52"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
@@ -2613,17 +2662,17 @@
       <c r="S54" s="23"/>
       <c r="T54" s="23"/>
       <c r="U54" s="23"/>
-      <c r="V54" s="55"/>
+      <c r="V54" s="47"/>
     </row>
     <row r="55" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B55" s="52"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
@@ -2636,17 +2685,17 @@
       <c r="S55" s="23"/>
       <c r="T55" s="23"/>
       <c r="U55" s="23"/>
-      <c r="V55" s="55"/>
+      <c r="V55" s="47"/>
     </row>
     <row r="56" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B56" s="52"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
@@ -2659,17 +2708,17 @@
       <c r="S56" s="23"/>
       <c r="T56" s="23"/>
       <c r="U56" s="23"/>
-      <c r="V56" s="55"/>
+      <c r="V56" s="47"/>
     </row>
     <row r="57" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B57" s="52"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
@@ -2682,17 +2731,17 @@
       <c r="S57" s="23"/>
       <c r="T57" s="23"/>
       <c r="U57" s="23"/>
-      <c r="V57" s="55"/>
+      <c r="V57" s="47"/>
     </row>
     <row r="58" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B58" s="52"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
@@ -2705,17 +2754,17 @@
       <c r="S58" s="23"/>
       <c r="T58" s="23"/>
       <c r="U58" s="23"/>
-      <c r="V58" s="55"/>
+      <c r="V58" s="47"/>
     </row>
     <row r="59" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B59" s="52"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
@@ -2728,17 +2777,17 @@
       <c r="S59" s="23"/>
       <c r="T59" s="23"/>
       <c r="U59" s="23"/>
-      <c r="V59" s="55"/>
+      <c r="V59" s="47"/>
     </row>
     <row r="60" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B60" s="52"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
       <c r="J60" s="23"/>
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
@@ -2751,17 +2800,17 @@
       <c r="S60" s="23"/>
       <c r="T60" s="23"/>
       <c r="U60" s="23"/>
-      <c r="V60" s="55"/>
+      <c r="V60" s="47"/>
     </row>
     <row r="61" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B61" s="52"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
@@ -2774,17 +2823,17 @@
       <c r="S61" s="23"/>
       <c r="T61" s="23"/>
       <c r="U61" s="23"/>
-      <c r="V61" s="55"/>
+      <c r="V61" s="47"/>
     </row>
     <row r="62" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B62" s="52"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
@@ -2797,17 +2846,17 @@
       <c r="S62" s="23"/>
       <c r="T62" s="23"/>
       <c r="U62" s="23"/>
-      <c r="V62" s="55"/>
+      <c r="V62" s="47"/>
     </row>
     <row r="63" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B63" s="52"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
       <c r="J63" s="23"/>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
@@ -2820,17 +2869,17 @@
       <c r="S63" s="23"/>
       <c r="T63" s="23"/>
       <c r="U63" s="23"/>
-      <c r="V63" s="55"/>
+      <c r="V63" s="47"/>
     </row>
     <row r="64" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B64" s="52"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
@@ -2843,17 +2892,17 @@
       <c r="S64" s="23"/>
       <c r="T64" s="23"/>
       <c r="U64" s="23"/>
-      <c r="V64" s="55"/>
+      <c r="V64" s="47"/>
     </row>
     <row r="65" spans="1:23" ht="22.5" customHeight="1">
-      <c r="B65" s="52"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
@@ -2866,17 +2915,17 @@
       <c r="S65" s="23"/>
       <c r="T65" s="23"/>
       <c r="U65" s="23"/>
-      <c r="V65" s="55"/>
+      <c r="V65" s="47"/>
     </row>
     <row r="66" spans="1:23" ht="22.5" customHeight="1">
-      <c r="B66" s="52"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
       <c r="J66" s="23"/>
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
@@ -2889,33 +2938,33 @@
       <c r="S66" s="23"/>
       <c r="T66" s="23"/>
       <c r="U66" s="23"/>
-      <c r="V66" s="55"/>
+      <c r="V66" s="47"/>
     </row>
     <row r="67" spans="1:23" ht="47.25" customHeight="1">
-      <c r="B67" s="52"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
       <c r="J67" s="23"/>
       <c r="K67" s="23"/>
       <c r="L67" s="23"/>
       <c r="M67" s="23"/>
       <c r="N67" s="23"/>
-      <c r="O67" s="61"/>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="61"/>
-      <c r="R67" s="61"/>
-      <c r="S67" s="61"/>
-      <c r="T67" s="61"/>
-      <c r="U67" s="61"/>
-      <c r="V67" s="55"/>
+      <c r="O67" s="53"/>
+      <c r="P67" s="53"/>
+      <c r="Q67" s="53"/>
+      <c r="R67" s="53"/>
+      <c r="S67" s="53"/>
+      <c r="T67" s="53"/>
+      <c r="U67" s="53"/>
+      <c r="V67" s="47"/>
     </row>
     <row r="68" spans="1:23">
-      <c r="B68" s="52"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
@@ -2928,17 +2977,17 @@
       <c r="L68" s="23"/>
       <c r="M68" s="23"/>
       <c r="N68" s="23"/>
-      <c r="O68" s="61"/>
-      <c r="P68" s="61"/>
-      <c r="Q68" s="61"/>
-      <c r="R68" s="61"/>
-      <c r="S68" s="61"/>
-      <c r="T68" s="61"/>
-      <c r="U68" s="61"/>
-      <c r="V68" s="55"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="53"/>
+      <c r="R68" s="53"/>
+      <c r="S68" s="53"/>
+      <c r="T68" s="53"/>
+      <c r="U68" s="53"/>
+      <c r="V68" s="47"/>
     </row>
     <row r="69" spans="1:23" ht="44.25" customHeight="1">
-      <c r="B69" s="52"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
@@ -2951,17 +3000,17 @@
       <c r="L69" s="23"/>
       <c r="M69" s="23"/>
       <c r="N69" s="23"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="61"/>
-      <c r="Q69" s="61"/>
-      <c r="R69" s="61"/>
-      <c r="S69" s="61"/>
-      <c r="T69" s="61"/>
-      <c r="U69" s="61"/>
-      <c r="V69" s="55"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="53"/>
+      <c r="R69" s="53"/>
+      <c r="S69" s="53"/>
+      <c r="T69" s="53"/>
+      <c r="U69" s="53"/>
+      <c r="V69" s="47"/>
     </row>
     <row r="70" spans="1:23">
-      <c r="B70" s="52"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="23"/>
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
@@ -2981,506 +3030,506 @@
       <c r="S70" s="23"/>
       <c r="T70" s="23"/>
       <c r="U70" s="23"/>
-      <c r="V70" s="55"/>
+      <c r="V70" s="47"/>
     </row>
     <row r="71" spans="1:23">
-      <c r="B71" s="52"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="23"/>
-      <c r="D71" s="111"/>
-      <c r="E71" s="111"/>
-      <c r="F71" s="111"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="111"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="111"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
-      <c r="M71" s="111"/>
-      <c r="N71" s="111"/>
-      <c r="O71" s="111"/>
-      <c r="P71" s="111"/>
-      <c r="Q71" s="111"/>
-      <c r="R71" s="111"/>
-      <c r="S71" s="111"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="69"/>
+      <c r="O71" s="69"/>
+      <c r="P71" s="69"/>
+      <c r="Q71" s="69"/>
+      <c r="R71" s="69"/>
+      <c r="S71" s="69"/>
       <c r="T71" s="23"/>
       <c r="U71" s="23"/>
-      <c r="V71" s="55"/>
-    </row>
-    <row r="72" spans="1:23" ht="37.200000000000003">
-      <c r="B72" s="52"/>
+      <c r="V71" s="47"/>
+    </row>
+    <row r="72" spans="1:23" ht="37.5">
+      <c r="B72" s="44"/>
       <c r="C72" s="23"/>
-      <c r="D72" s="85" t="s">
+      <c r="D72" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="85"/>
-      <c r="I72" s="85"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="N72" s="85"/>
-      <c r="O72" s="85"/>
-      <c r="P72" s="85"/>
-      <c r="Q72" s="85"/>
-      <c r="R72" s="85"/>
-      <c r="S72" s="85"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="98"/>
+      <c r="H72" s="98"/>
+      <c r="I72" s="98"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="N72" s="98"/>
+      <c r="O72" s="98"/>
+      <c r="P72" s="98"/>
+      <c r="Q72" s="98"/>
+      <c r="R72" s="98"/>
+      <c r="S72" s="98"/>
       <c r="T72" s="23"/>
       <c r="U72" s="23"/>
-      <c r="V72" s="55"/>
+      <c r="V72" s="47"/>
     </row>
     <row r="73" spans="1:23" ht="57.75" customHeight="1">
-      <c r="B73" s="52"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="23"/>
-      <c r="D73" s="124" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="124"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="124"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="124"/>
-      <c r="J73" s="124"/>
+      <c r="D73" s="134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="134"/>
+      <c r="F73" s="134"/>
+      <c r="G73" s="134"/>
+      <c r="H73" s="134"/>
+      <c r="I73" s="134"/>
+      <c r="J73" s="134"/>
       <c r="K73" s="23"/>
-      <c r="L73" s="125"/>
-      <c r="M73" s="124" t="s">
-        <v>28</v>
-      </c>
-      <c r="N73" s="124"/>
-      <c r="O73" s="124"/>
-      <c r="P73" s="124"/>
-      <c r="Q73" s="124"/>
-      <c r="R73" s="124"/>
-      <c r="S73" s="124"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="N73" s="134"/>
+      <c r="O73" s="134"/>
+      <c r="P73" s="134"/>
+      <c r="Q73" s="134"/>
+      <c r="R73" s="134"/>
+      <c r="S73" s="134"/>
       <c r="T73" s="23"/>
       <c r="U73" s="23"/>
-      <c r="V73" s="55"/>
-    </row>
-    <row r="74" spans="1:23" ht="25.2" thickBot="1">
-      <c r="B74" s="65"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="66"/>
-      <c r="K74" s="66"/>
-      <c r="L74" s="66"/>
-      <c r="M74" s="66"/>
-      <c r="N74" s="66"/>
-      <c r="O74" s="66"/>
-      <c r="P74" s="66"/>
-      <c r="Q74" s="66"/>
-      <c r="R74" s="66"/>
-      <c r="S74" s="66"/>
-      <c r="T74" s="66"/>
-      <c r="U74" s="66"/>
-      <c r="V74" s="67"/>
+      <c r="V73" s="47"/>
+    </row>
+    <row r="74" spans="1:23" ht="26.25" thickBot="1">
+      <c r="B74" s="57"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="58"/>
+      <c r="K74" s="58"/>
+      <c r="L74" s="58"/>
+      <c r="M74" s="58"/>
+      <c r="N74" s="58"/>
+      <c r="O74" s="58"/>
+      <c r="P74" s="58"/>
+      <c r="Q74" s="58"/>
+      <c r="R74" s="58"/>
+      <c r="S74" s="58"/>
+      <c r="T74" s="58"/>
+      <c r="U74" s="58"/>
+      <c r="V74" s="59"/>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="2"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="71"/>
-      <c r="N76" s="71"/>
-      <c r="O76" s="71"/>
-      <c r="P76" s="71"/>
-      <c r="Q76" s="71"/>
-      <c r="R76" s="71"/>
-      <c r="S76" s="71"/>
-      <c r="T76" s="71"/>
-      <c r="U76" s="71"/>
-      <c r="V76" s="71"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="63"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="63"/>
+      <c r="N76" s="63"/>
+      <c r="O76" s="63"/>
+      <c r="P76" s="63"/>
+      <c r="Q76" s="63"/>
+      <c r="R76" s="63"/>
+      <c r="S76" s="63"/>
+      <c r="T76" s="63"/>
+      <c r="U76" s="63"/>
+      <c r="V76" s="63"/>
       <c r="W76" s="2"/>
     </row>
     <row r="77" spans="1:23" ht="81" customHeight="1">
       <c r="A77" s="2"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="97"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="97"/>
-      <c r="G77" s="97"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="97"/>
-      <c r="J77" s="97"/>
-      <c r="K77" s="97"/>
-      <c r="L77" s="97"/>
-      <c r="M77" s="97"/>
-      <c r="N77" s="97"/>
-      <c r="O77" s="97"/>
-      <c r="P77" s="97"/>
-      <c r="Q77" s="97"/>
-      <c r="R77" s="97"/>
-      <c r="S77" s="97"/>
-      <c r="T77" s="97"/>
-      <c r="U77" s="97"/>
-      <c r="V77" s="71"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="117"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="117"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="117"/>
+      <c r="P77" s="117"/>
+      <c r="Q77" s="117"/>
+      <c r="R77" s="117"/>
+      <c r="S77" s="117"/>
+      <c r="T77" s="117"/>
+      <c r="U77" s="117"/>
+      <c r="V77" s="63"/>
       <c r="W77" s="2"/>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="2"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="71"/>
-      <c r="L78" s="71"/>
-      <c r="M78" s="71"/>
-      <c r="N78" s="71"/>
-      <c r="O78" s="71"/>
-      <c r="P78" s="71"/>
-      <c r="Q78" s="71"/>
-      <c r="R78" s="71"/>
-      <c r="S78" s="71"/>
-      <c r="T78" s="71"/>
-      <c r="U78" s="71"/>
-      <c r="V78" s="71"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
+      <c r="O78" s="63"/>
+      <c r="P78" s="63"/>
+      <c r="Q78" s="63"/>
+      <c r="R78" s="63"/>
+      <c r="S78" s="63"/>
+      <c r="T78" s="63"/>
+      <c r="U78" s="63"/>
+      <c r="V78" s="63"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" ht="37.200000000000003">
+    <row r="79" spans="1:23" ht="37.5">
       <c r="A79" s="2"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="71"/>
-      <c r="P79" s="71"/>
-      <c r="Q79" s="71"/>
-      <c r="R79" s="71"/>
-      <c r="S79" s="71"/>
-      <c r="T79" s="71"/>
-      <c r="U79" s="71"/>
-      <c r="V79" s="71"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="63"/>
+      <c r="Q79" s="63"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="63"/>
+      <c r="T79" s="63"/>
+      <c r="U79" s="63"/>
+      <c r="V79" s="63"/>
       <c r="W79" s="2"/>
     </row>
     <row r="80" spans="1:23" ht="53.25" customHeight="1">
       <c r="A80" s="2"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="96"/>
-      <c r="F80" s="96"/>
-      <c r="G80" s="96"/>
-      <c r="H80" s="96"/>
-      <c r="I80" s="96"/>
-      <c r="J80" s="96"/>
-      <c r="K80" s="96"/>
-      <c r="L80" s="96"/>
-      <c r="M80" s="96"/>
-      <c r="N80" s="96"/>
-      <c r="O80" s="101"/>
-      <c r="P80" s="101"/>
-      <c r="Q80" s="101"/>
-      <c r="R80" s="101"/>
-      <c r="S80" s="71"/>
-      <c r="T80" s="71"/>
-      <c r="U80" s="71"/>
-      <c r="V80" s="71"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="116"/>
+      <c r="G80" s="116"/>
+      <c r="H80" s="116"/>
+      <c r="I80" s="116"/>
+      <c r="J80" s="116"/>
+      <c r="K80" s="116"/>
+      <c r="L80" s="116"/>
+      <c r="M80" s="116"/>
+      <c r="N80" s="116"/>
+      <c r="O80" s="114"/>
+      <c r="P80" s="114"/>
+      <c r="Q80" s="114"/>
+      <c r="R80" s="114"/>
+      <c r="S80" s="63"/>
+      <c r="T80" s="63"/>
+      <c r="U80" s="63"/>
+      <c r="V80" s="63"/>
       <c r="W80" s="2"/>
     </row>
     <row r="81" spans="1:23" ht="53.25" customHeight="1">
       <c r="A81" s="2"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="96"/>
-      <c r="I81" s="96"/>
-      <c r="J81" s="96"/>
-      <c r="K81" s="96"/>
-      <c r="L81" s="96"/>
-      <c r="M81" s="96"/>
-      <c r="N81" s="96"/>
-      <c r="O81" s="101"/>
-      <c r="P81" s="101"/>
-      <c r="Q81" s="101"/>
-      <c r="R81" s="101"/>
-      <c r="S81" s="71"/>
-      <c r="T81" s="71"/>
-      <c r="U81" s="71"/>
-      <c r="V81" s="71"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="116"/>
+      <c r="F81" s="116"/>
+      <c r="G81" s="116"/>
+      <c r="H81" s="116"/>
+      <c r="I81" s="116"/>
+      <c r="J81" s="116"/>
+      <c r="K81" s="116"/>
+      <c r="L81" s="116"/>
+      <c r="M81" s="116"/>
+      <c r="N81" s="116"/>
+      <c r="O81" s="114"/>
+      <c r="P81" s="114"/>
+      <c r="Q81" s="114"/>
+      <c r="R81" s="114"/>
+      <c r="S81" s="63"/>
+      <c r="T81" s="63"/>
+      <c r="U81" s="63"/>
+      <c r="V81" s="63"/>
       <c r="W81" s="2"/>
     </row>
     <row r="82" spans="1:23" ht="53.25" customHeight="1">
       <c r="A82" s="2"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="72"/>
-      <c r="I82" s="73"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="71"/>
-      <c r="L82" s="71"/>
-      <c r="M82" s="71"/>
-      <c r="N82" s="74"/>
-      <c r="O82" s="101"/>
-      <c r="P82" s="101"/>
-      <c r="Q82" s="101"/>
-      <c r="R82" s="101"/>
-      <c r="S82" s="71"/>
-      <c r="T82" s="71"/>
-      <c r="U82" s="71"/>
-      <c r="V82" s="71"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="63"/>
+      <c r="L82" s="63"/>
+      <c r="M82" s="63"/>
+      <c r="N82" s="66"/>
+      <c r="O82" s="114"/>
+      <c r="P82" s="114"/>
+      <c r="Q82" s="114"/>
+      <c r="R82" s="114"/>
+      <c r="S82" s="63"/>
+      <c r="T82" s="63"/>
+      <c r="U82" s="63"/>
+      <c r="V82" s="63"/>
       <c r="W82" s="2"/>
     </row>
     <row r="83" spans="1:23" ht="18" customHeight="1">
       <c r="A83" s="2"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71"/>
-      <c r="L83" s="71"/>
-      <c r="M83" s="71"/>
-      <c r="N83" s="71"/>
-      <c r="O83" s="71"/>
-      <c r="P83" s="71"/>
-      <c r="Q83" s="71"/>
-      <c r="R83" s="71"/>
-      <c r="S83" s="71"/>
-      <c r="T83" s="71"/>
-      <c r="U83" s="71"/>
-      <c r="V83" s="71"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="64"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
+      <c r="L83" s="63"/>
+      <c r="M83" s="63"/>
+      <c r="N83" s="63"/>
+      <c r="O83" s="63"/>
+      <c r="P83" s="63"/>
+      <c r="Q83" s="63"/>
+      <c r="R83" s="63"/>
+      <c r="S83" s="63"/>
+      <c r="T83" s="63"/>
+      <c r="U83" s="63"/>
+      <c r="V83" s="63"/>
       <c r="W83" s="2"/>
     </row>
     <row r="84" spans="1:23" ht="108.75" customHeight="1">
       <c r="A84" s="2"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="97"/>
-      <c r="E84" s="97"/>
-      <c r="F84" s="97"/>
-      <c r="G84" s="97"/>
-      <c r="H84" s="97"/>
-      <c r="I84" s="97"/>
-      <c r="J84" s="98"/>
-      <c r="K84" s="98"/>
-      <c r="L84" s="98"/>
-      <c r="M84" s="98"/>
-      <c r="N84" s="98"/>
-      <c r="O84" s="101"/>
-      <c r="P84" s="101"/>
-      <c r="Q84" s="101"/>
-      <c r="R84" s="101"/>
-      <c r="S84" s="71"/>
-      <c r="T84" s="71"/>
-      <c r="U84" s="71"/>
-      <c r="V84" s="71"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="117"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="117"/>
+      <c r="G84" s="117"/>
+      <c r="H84" s="117"/>
+      <c r="I84" s="117"/>
+      <c r="J84" s="115"/>
+      <c r="K84" s="115"/>
+      <c r="L84" s="115"/>
+      <c r="M84" s="115"/>
+      <c r="N84" s="115"/>
+      <c r="O84" s="114"/>
+      <c r="P84" s="114"/>
+      <c r="Q84" s="114"/>
+      <c r="R84" s="114"/>
+      <c r="S84" s="63"/>
+      <c r="T84" s="63"/>
+      <c r="U84" s="63"/>
+      <c r="V84" s="63"/>
       <c r="W84" s="2"/>
     </row>
     <row r="85" spans="1:23" ht="18.75" customHeight="1">
       <c r="A85" s="2"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="72"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="71"/>
-      <c r="L85" s="71"/>
-      <c r="M85" s="71"/>
-      <c r="N85" s="71"/>
-      <c r="O85" s="71"/>
-      <c r="P85" s="71"/>
-      <c r="Q85" s="71"/>
-      <c r="R85" s="71"/>
-      <c r="S85" s="71"/>
-      <c r="T85" s="71"/>
-      <c r="U85" s="71"/>
-      <c r="V85" s="71"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="64"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="63"/>
+      <c r="L85" s="63"/>
+      <c r="M85" s="63"/>
+      <c r="N85" s="63"/>
+      <c r="O85" s="63"/>
+      <c r="P85" s="63"/>
+      <c r="Q85" s="63"/>
+      <c r="R85" s="63"/>
+      <c r="S85" s="63"/>
+      <c r="T85" s="63"/>
+      <c r="U85" s="63"/>
+      <c r="V85" s="63"/>
       <c r="W85" s="2"/>
     </row>
     <row r="86" spans="1:23" ht="41.25" customHeight="1">
       <c r="A86" s="2"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="96"/>
-      <c r="E86" s="96"/>
-      <c r="F86" s="96"/>
-      <c r="G86" s="96"/>
-      <c r="H86" s="96"/>
-      <c r="I86" s="96"/>
-      <c r="J86" s="96"/>
-      <c r="K86" s="96"/>
-      <c r="L86" s="96"/>
-      <c r="M86" s="96"/>
-      <c r="N86" s="96"/>
-      <c r="O86" s="101"/>
-      <c r="P86" s="101"/>
-      <c r="Q86" s="101"/>
-      <c r="R86" s="101"/>
-      <c r="S86" s="71"/>
-      <c r="T86" s="71"/>
-      <c r="U86" s="71"/>
-      <c r="V86" s="71"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="116"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="116"/>
+      <c r="H86" s="116"/>
+      <c r="I86" s="116"/>
+      <c r="J86" s="116"/>
+      <c r="K86" s="116"/>
+      <c r="L86" s="116"/>
+      <c r="M86" s="116"/>
+      <c r="N86" s="116"/>
+      <c r="O86" s="114"/>
+      <c r="P86" s="114"/>
+      <c r="Q86" s="114"/>
+      <c r="R86" s="114"/>
+      <c r="S86" s="63"/>
+      <c r="T86" s="63"/>
+      <c r="U86" s="63"/>
+      <c r="V86" s="63"/>
       <c r="W86" s="2"/>
     </row>
     <row r="87" spans="1:23" ht="18.75" customHeight="1">
       <c r="A87" s="2"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
-      <c r="J87" s="71"/>
-      <c r="K87" s="71"/>
-      <c r="L87" s="71"/>
-      <c r="M87" s="71"/>
-      <c r="N87" s="71"/>
-      <c r="O87" s="71"/>
-      <c r="P87" s="71"/>
-      <c r="Q87" s="71"/>
-      <c r="R87" s="71"/>
-      <c r="S87" s="71"/>
-      <c r="T87" s="71"/>
-      <c r="U87" s="71"/>
-      <c r="V87" s="71"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="63"/>
+      <c r="L87" s="63"/>
+      <c r="M87" s="63"/>
+      <c r="N87" s="63"/>
+      <c r="O87" s="63"/>
+      <c r="P87" s="63"/>
+      <c r="Q87" s="63"/>
+      <c r="R87" s="63"/>
+      <c r="S87" s="63"/>
+      <c r="T87" s="63"/>
+      <c r="U87" s="63"/>
+      <c r="V87" s="63"/>
       <c r="W87" s="2"/>
     </row>
     <row r="88" spans="1:23" ht="41.25" customHeight="1">
       <c r="A88" s="2"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="96"/>
-      <c r="E88" s="96"/>
-      <c r="F88" s="96"/>
-      <c r="G88" s="96"/>
-      <c r="H88" s="96"/>
-      <c r="I88" s="96"/>
-      <c r="J88" s="96"/>
-      <c r="K88" s="96"/>
-      <c r="L88" s="96"/>
-      <c r="M88" s="96"/>
-      <c r="N88" s="96"/>
-      <c r="O88" s="101"/>
-      <c r="P88" s="101"/>
-      <c r="Q88" s="101"/>
-      <c r="R88" s="101"/>
-      <c r="S88" s="71"/>
-      <c r="T88" s="71"/>
-      <c r="U88" s="71"/>
-      <c r="V88" s="71"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="116"/>
+      <c r="E88" s="116"/>
+      <c r="F88" s="116"/>
+      <c r="G88" s="116"/>
+      <c r="H88" s="116"/>
+      <c r="I88" s="116"/>
+      <c r="J88" s="116"/>
+      <c r="K88" s="116"/>
+      <c r="L88" s="116"/>
+      <c r="M88" s="116"/>
+      <c r="N88" s="116"/>
+      <c r="O88" s="114"/>
+      <c r="P88" s="114"/>
+      <c r="Q88" s="114"/>
+      <c r="R88" s="114"/>
+      <c r="S88" s="63"/>
+      <c r="T88" s="63"/>
+      <c r="U88" s="63"/>
+      <c r="V88" s="63"/>
       <c r="W88" s="2"/>
     </row>
     <row r="89" spans="1:23" ht="18.75" customHeight="1">
       <c r="A89" s="2"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="71"/>
-      <c r="L89" s="71"/>
-      <c r="M89" s="71"/>
-      <c r="N89" s="71"/>
-      <c r="O89" s="71"/>
-      <c r="P89" s="71"/>
-      <c r="Q89" s="71"/>
-      <c r="R89" s="71"/>
-      <c r="S89" s="71"/>
-      <c r="T89" s="71"/>
-      <c r="U89" s="71"/>
-      <c r="V89" s="71"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="64"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="63"/>
+      <c r="L89" s="63"/>
+      <c r="M89" s="63"/>
+      <c r="N89" s="63"/>
+      <c r="O89" s="63"/>
+      <c r="P89" s="63"/>
+      <c r="Q89" s="63"/>
+      <c r="R89" s="63"/>
+      <c r="S89" s="63"/>
+      <c r="T89" s="63"/>
+      <c r="U89" s="63"/>
+      <c r="V89" s="63"/>
       <c r="W89" s="2"/>
     </row>
     <row r="90" spans="1:23" ht="41.25" customHeight="1">
       <c r="A90" s="2"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="96"/>
-      <c r="E90" s="96"/>
-      <c r="F90" s="96"/>
-      <c r="G90" s="96"/>
-      <c r="H90" s="96"/>
-      <c r="I90" s="96"/>
-      <c r="J90" s="96"/>
-      <c r="K90" s="96"/>
-      <c r="L90" s="96"/>
-      <c r="M90" s="96"/>
-      <c r="N90" s="96"/>
-      <c r="O90" s="101"/>
-      <c r="P90" s="101"/>
-      <c r="Q90" s="101"/>
-      <c r="R90" s="101"/>
-      <c r="S90" s="71"/>
-      <c r="T90" s="71"/>
-      <c r="U90" s="71"/>
-      <c r="V90" s="71"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="116"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="116"/>
+      <c r="H90" s="116"/>
+      <c r="I90" s="116"/>
+      <c r="J90" s="116"/>
+      <c r="K90" s="116"/>
+      <c r="L90" s="116"/>
+      <c r="M90" s="116"/>
+      <c r="N90" s="116"/>
+      <c r="O90" s="114"/>
+      <c r="P90" s="114"/>
+      <c r="Q90" s="114"/>
+      <c r="R90" s="114"/>
+      <c r="S90" s="63"/>
+      <c r="T90" s="63"/>
+      <c r="U90" s="63"/>
+      <c r="V90" s="63"/>
       <c r="W90" s="2"/>
     </row>
     <row r="91" spans="1:23">
       <c r="A91" s="2"/>
-      <c r="B91" s="71"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="71"/>
-      <c r="I91" s="71"/>
-      <c r="J91" s="71"/>
-      <c r="K91" s="71"/>
-      <c r="L91" s="71"/>
-      <c r="M91" s="71"/>
-      <c r="N91" s="71"/>
-      <c r="O91" s="71"/>
-      <c r="P91" s="71"/>
-      <c r="Q91" s="71"/>
-      <c r="R91" s="71"/>
-      <c r="S91" s="71"/>
-      <c r="T91" s="71"/>
-      <c r="U91" s="71"/>
-      <c r="V91" s="71"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="63"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="63"/>
+      <c r="K91" s="63"/>
+      <c r="L91" s="63"/>
+      <c r="M91" s="63"/>
+      <c r="N91" s="63"/>
+      <c r="O91" s="63"/>
+      <c r="P91" s="63"/>
+      <c r="Q91" s="63"/>
+      <c r="R91" s="63"/>
+      <c r="S91" s="63"/>
+      <c r="T91" s="63"/>
+      <c r="U91" s="63"/>
+      <c r="V91" s="63"/>
       <c r="W91" s="2"/>
     </row>
     <row r="92" spans="1:23">
@@ -3519,37 +3568,37 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="82"/>
-      <c r="M93" s="82"/>
-      <c r="N93" s="82"/>
-      <c r="O93" s="82"/>
+      <c r="L93" s="95"/>
+      <c r="M93" s="95"/>
+      <c r="N93" s="95"/>
+      <c r="O93" s="95"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
-      <c r="R93" s="83"/>
-      <c r="S93" s="84"/>
-      <c r="T93" s="84"/>
+      <c r="R93" s="96"/>
+      <c r="S93" s="97"/>
+      <c r="T93" s="97"/>
       <c r="U93" s="5"/>
       <c r="V93" s="5"/>
     </row>
     <row r="94" spans="1:23" ht="25.5" customHeight="1">
-      <c r="L94" s="82"/>
-      <c r="M94" s="82"/>
-      <c r="N94" s="82"/>
-      <c r="O94" s="82"/>
-      <c r="R94" s="84"/>
-      <c r="S94" s="84"/>
-      <c r="T94" s="84"/>
+      <c r="L94" s="95"/>
+      <c r="M94" s="95"/>
+      <c r="N94" s="95"/>
+      <c r="O94" s="95"/>
+      <c r="R94" s="97"/>
+      <c r="S94" s="97"/>
+      <c r="T94" s="97"/>
     </row>
     <row r="95" spans="1:23" ht="25.5" customHeight="1">
-      <c r="L95" s="82"/>
-      <c r="M95" s="82"/>
-      <c r="N95" s="82"/>
-      <c r="O95" s="82"/>
-      <c r="R95" s="84"/>
-      <c r="S95" s="84"/>
-      <c r="T95" s="84"/>
-    </row>
-    <row r="96" spans="1:23" ht="61.2">
+      <c r="L95" s="95"/>
+      <c r="M95" s="95"/>
+      <c r="N95" s="95"/>
+      <c r="O95" s="95"/>
+      <c r="R95" s="97"/>
+      <c r="S95" s="97"/>
+      <c r="T95" s="97"/>
+    </row>
+    <row r="96" spans="1:23" ht="61.5">
       <c r="F96" s="22"/>
       <c r="G96" s="9"/>
       <c r="H96" s="21"/>
@@ -3593,9 +3642,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="96">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="O41:R41"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="D73:J73"/>
     <mergeCell ref="M73:S73"/>
@@ -3609,11 +3655,11 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="I30:M30"/>
     <mergeCell ref="D32:G32"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="I34:M34"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="I31:M31"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="O41:R41"/>
     <mergeCell ref="O50:R50"/>
     <mergeCell ref="O32:R32"/>
     <mergeCell ref="O22:R22"/>
@@ -3622,17 +3668,25 @@
     <mergeCell ref="O25:R25"/>
     <mergeCell ref="O24:R24"/>
     <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="I24:M24"/>
     <mergeCell ref="I25:M25"/>
     <mergeCell ref="I26:M26"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="O81:R81"/>
     <mergeCell ref="O80:R80"/>
     <mergeCell ref="D72:I72"/>
     <mergeCell ref="S37:U37"/>
@@ -3642,15 +3696,12 @@
     <mergeCell ref="O45:R45"/>
     <mergeCell ref="O43:R43"/>
     <mergeCell ref="O44:R44"/>
-    <mergeCell ref="O82:R82"/>
-    <mergeCell ref="M72:S72"/>
-    <mergeCell ref="E80:N80"/>
-    <mergeCell ref="E81:N81"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="C77:U77"/>
     <mergeCell ref="S51:U51"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="O81:R81"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="D46:I46"/>
     <mergeCell ref="O90:R90"/>
     <mergeCell ref="O88:R88"/>
     <mergeCell ref="O86:R86"/>
@@ -3658,29 +3709,19 @@
     <mergeCell ref="J84:N84"/>
     <mergeCell ref="D86:N86"/>
     <mergeCell ref="D88:N88"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="L47:N47"/>
     <mergeCell ref="D90:N90"/>
     <mergeCell ref="D84:I84"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="M72:S72"/>
+    <mergeCell ref="E80:N80"/>
+    <mergeCell ref="E81:N81"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="C77:U77"/>
     <mergeCell ref="D43:I43"/>
     <mergeCell ref="D44:I44"/>
     <mergeCell ref="D45:I45"/>
     <mergeCell ref="L44:N44"/>
     <mergeCell ref="L43:N43"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="Q8:U8"/>
     <mergeCell ref="C2:U2"/>
     <mergeCell ref="K14:P14"/>
     <mergeCell ref="O34:R34"/>
@@ -3689,6 +3730,14 @@
     <mergeCell ref="R93:T95"/>
     <mergeCell ref="L45:N45"/>
     <mergeCell ref="L6:U6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="D52:M52"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/IERP_RH/resources/templates/nominaTemplate.xlsx
+++ b/IERP_RH/resources/templates/nominaTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c8dd5bdf926d5b7/Escritorio/IERP-EQ3-RH-8B/IERP_RH/resources/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Chavez\Documents\NetBeansProjects\IERP-EQ3-RH-8B\IERP_RH\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:40009_{04DA5284-CB5B-4210-9A4E-4A7F2774A6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D89B3F4-D6B9-4589-9929-21FE4AEF7449}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67927FB4-DC6E-4650-9C74-C82A134DBA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo Nómina" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Modelo Nómina'!$B$2:$V$74</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Empresa:</t>
   </si>
@@ -117,20 +128,30 @@
   <si>
     <t>Recibio</t>
   </si>
+  <si>
+    <t>Forma Pago</t>
+  </si>
+  <si>
+    <t>dfdsfsa</t>
+  </si>
+  <si>
+    <t>Fecha Pago</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm;@"/>
-    <numFmt numFmtId="165" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="167" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm;@"/>
+    <numFmt numFmtId="166" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="168" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,12 +287,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="30"/>
-      <color theme="6" tint="0.79998168889431442"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="48"/>
       <color theme="8" tint="-0.249977111117893"/>
@@ -289,6 +304,18 @@
       <b/>
       <sz val="30"/>
       <color theme="2" tint="-0.749992370372631"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="6" tint="0.79998168889431442"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -522,9 +549,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -589,28 +616,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -658,7 +673,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -672,21 +687,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,142 +709,160 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,16 +872,42 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,61 +1256,61 @@
   <dimension ref="A1:AK102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+      <selection activeCell="D23" sqref="D23:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="25.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="24.6"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="50" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="60.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="60.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="36" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="26" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="25.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25.6640625" style="1" customWidth="1"/>
     <col min="22" max="22" width="5" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="1"/>
+    <col min="23" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="335.25" customHeight="1"/>
     <row r="2" spans="1:37" ht="96" customHeight="1">
-      <c r="B2" s="53"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="53"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="48"/>
     </row>
     <row r="3" spans="1:37" ht="63.75" customHeight="1" thickBot="1">
       <c r="B3" s="24"/>
@@ -1293,161 +1337,163 @@
     </row>
     <row r="4" spans="1:37" ht="14.25" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="81"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="72"/>
     </row>
     <row r="5" spans="1:37" ht="53.25" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="82" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="82" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="83"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="74"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="94"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
     </row>
     <row r="6" spans="1:37" ht="60" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="102" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="83"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="74"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="94"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="94"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="94"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
     </row>
     <row r="7" spans="1:37" ht="54" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="82" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="82" t="s">
+      <c r="D7" s="73"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="82" t="s">
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="82"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="83"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="74"/>
     </row>
     <row r="8" spans="1:37" ht="60" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="83"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="74"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
@@ -1457,35 +1503,37 @@
     </row>
     <row r="9" spans="1:37" ht="54.75" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="82" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="82" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="82" t="s">
+      <c r="H9" s="58"/>
+      <c r="I9" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="82" t="s">
+      <c r="M9" s="58"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="63"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="83"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="74"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
@@ -1496,27 +1544,27 @@
     </row>
     <row r="10" spans="1:37" ht="60" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="83"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="74"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Z10" s="10"/>
@@ -1530,27 +1578,27 @@
     </row>
     <row r="11" spans="1:37" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="89"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="80"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Z11" s="10"/>
@@ -1558,7 +1606,7 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:37" ht="62.25" thickBot="1">
+    <row r="12" spans="1:37" ht="61.8" thickBot="1">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1574,7 +1622,7 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13" spans="1:37" ht="11.25" customHeight="1">
-      <c r="B13" s="61"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -1597,105 +1645,109 @@
       <c r="V13" s="27"/>
     </row>
     <row r="14" spans="1:37" ht="53.25" customHeight="1">
-      <c r="B14" s="60"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="32" t="s">
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="33">
-        <v>43831</v>
-      </c>
-      <c r="J14" s="34" t="s">
+      <c r="I14" s="133">
+        <v>11169</v>
+      </c>
+      <c r="J14" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="132" t="s">
+      <c r="K14" s="135">
+        <v>37467</v>
+      </c>
+      <c r="L14" s="135"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="128"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="T14" s="133"/>
-      <c r="U14" s="76"/>
+      <c r="T14" s="130"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="28"/>
     </row>
     <row r="15" spans="1:37" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B15" s="62"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
       <c r="U15" s="29"/>
       <c r="V15" s="30"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
     </row>
-    <row r="16" spans="1:37" ht="26.25" thickBot="1">
+    <row r="16" spans="1:37" ht="25.2" thickBot="1">
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
     </row>
     <row r="17" spans="2:37" ht="16.5" customHeight="1">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="43"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="38"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
     </row>
-    <row r="18" spans="2:37" ht="37.5">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45" t="s">
+    <row r="18" spans="2:37" ht="37.799999999999997">
+      <c r="B18" s="39"/>
+      <c r="C18" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -1708,17 +1760,17 @@
       <c r="S18" s="23"/>
       <c r="T18" s="23"/>
       <c r="U18" s="23"/>
-      <c r="V18" s="47"/>
+      <c r="V18" s="42"/>
     </row>
     <row r="19" spans="2:37" ht="23.25" customHeight="1">
-      <c r="B19" s="44"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
@@ -1731,19 +1783,19 @@
       <c r="S19" s="23"/>
       <c r="T19" s="23"/>
       <c r="U19" s="23"/>
-      <c r="V19" s="47"/>
-    </row>
-    <row r="20" spans="2:37" ht="37.5">
-      <c r="B20" s="44"/>
-      <c r="C20" s="45" t="s">
+      <c r="V19" s="42"/>
+    </row>
+    <row r="20" spans="2:37" ht="37.799999999999997">
+      <c r="B20" s="39"/>
+      <c r="C20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
@@ -1756,17 +1808,17 @@
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
-      <c r="V20" s="47"/>
+      <c r="V20" s="42"/>
     </row>
     <row r="21" spans="2:37" ht="27.75" customHeight="1">
-      <c r="B21" s="44"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
@@ -1779,34 +1831,34 @@
       <c r="S21" s="23"/>
       <c r="T21" s="23"/>
       <c r="U21" s="23"/>
-      <c r="V21" s="47"/>
-    </row>
-    <row r="22" spans="2:37" ht="44.25">
-      <c r="B22" s="44"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="128" t="s">
+      <c r="V21" s="42"/>
+    </row>
+    <row r="22" spans="2:37" ht="44.4">
+      <c r="B22" s="39"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="127" t="s">
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="121"/>
       <c r="S22" s="23"/>
       <c r="T22" s="23"/>
       <c r="U22" s="23"/>
-      <c r="V22" s="47"/>
+      <c r="V22" s="42"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
@@ -1817,27 +1869,27 @@
       <c r="AK22" s="2"/>
     </row>
     <row r="23" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B23" s="44"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="49"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="44"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
       <c r="S23" s="23"/>
       <c r="T23" s="23"/>
       <c r="U23" s="23"/>
-      <c r="V23" s="47"/>
+      <c r="V23" s="42"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
@@ -1848,29 +1900,29 @@
       <c r="AK23" s="2"/>
     </row>
     <row r="24" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B24" s="44"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="124" t="s">
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="124"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
       <c r="U24" s="23"/>
-      <c r="V24" s="47"/>
+      <c r="V24" s="42"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
@@ -1881,31 +1933,31 @@
       <c r="AK24" s="2"/>
     </row>
     <row r="25" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B25" s="44"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="124" t="s">
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="93">
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="103">
         <v>0</v>
       </c>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
       <c r="S25" s="23"/>
       <c r="T25" s="23"/>
       <c r="U25" s="23"/>
-      <c r="V25" s="47"/>
+      <c r="V25" s="42"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
@@ -1916,31 +1968,31 @@
       <c r="AK25" s="2"/>
     </row>
     <row r="26" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B26" s="44"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="23"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="124" t="s">
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="93">
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="103">
         <v>0</v>
       </c>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
       <c r="U26" s="23"/>
-      <c r="V26" s="47"/>
+      <c r="V26" s="42"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
@@ -1951,246 +2003,246 @@
       <c r="AK26" s="2"/>
     </row>
     <row r="27" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B27" s="44"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="124" t="s">
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="124"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="93">
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="103">
         <v>0</v>
       </c>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
       <c r="S27" s="23"/>
       <c r="T27" s="23"/>
       <c r="U27" s="23"/>
-      <c r="V27" s="47"/>
+      <c r="V27" s="42"/>
     </row>
     <row r="28" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B28" s="44"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="124" t="s">
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="124"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="93">
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="103">
         <v>0</v>
       </c>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="93"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="103"/>
       <c r="S28" s="23"/>
       <c r="T28" s="23"/>
       <c r="U28" s="23"/>
-      <c r="V28" s="47"/>
+      <c r="V28" s="42"/>
     </row>
     <row r="29" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B29" s="44"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="23"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="124" t="s">
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="124"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="93">
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="103">
         <v>0</v>
       </c>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
       <c r="S29" s="23"/>
       <c r="T29" s="23"/>
       <c r="U29" s="23"/>
-      <c r="V29" s="47"/>
+      <c r="V29" s="42"/>
     </row>
     <row r="30" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B30" s="50"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="124" t="s">
+      <c r="B30" s="45"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="124"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="93">
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="103">
         <v>0</v>
       </c>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="93"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
       <c r="S30" s="23"/>
       <c r="T30" s="23"/>
       <c r="U30" s="23"/>
-      <c r="V30" s="47"/>
+      <c r="V30" s="42"/>
     </row>
     <row r="31" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B31" s="50"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="124" t="s">
+      <c r="B31" s="45"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="124"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="93">
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="103">
         <v>0</v>
       </c>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="93"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
       <c r="S31" s="23"/>
       <c r="T31" s="23"/>
       <c r="U31" s="23"/>
-      <c r="V31" s="47"/>
+      <c r="V31" s="42"/>
     </row>
     <row r="32" spans="2:37" ht="52.5" customHeight="1">
-      <c r="B32" s="50"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="124" t="s">
+      <c r="B32" s="45"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="124"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="93">
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="103">
         <v>0</v>
       </c>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="93"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
       <c r="U32" s="23"/>
-      <c r="V32" s="47"/>
+      <c r="V32" s="42"/>
     </row>
     <row r="33" spans="2:22" ht="52.5" customHeight="1">
-      <c r="B33" s="50"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="124" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="124"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="93">
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="103">
         <v>0</v>
       </c>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="93"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
       <c r="S33" s="23"/>
       <c r="T33" s="23"/>
       <c r="U33" s="23"/>
-      <c r="V33" s="47"/>
+      <c r="V33" s="42"/>
     </row>
     <row r="34" spans="2:22" ht="52.5" customHeight="1">
-      <c r="B34" s="50"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="124" t="s">
+      <c r="B34" s="45"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="124"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="93">
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="103">
         <v>0</v>
       </c>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="93"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
       <c r="S34" s="23"/>
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
-      <c r="V34" s="47"/>
+      <c r="V34" s="42"/>
     </row>
     <row r="35" spans="2:22" ht="27.75" customHeight="1">
-      <c r="B35" s="50"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
       <c r="S35" s="23"/>
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
-      <c r="V35" s="47"/>
+      <c r="V35" s="42"/>
     </row>
     <row r="36" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B36" s="44"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
@@ -2210,38 +2262,38 @@
       <c r="S36" s="23"/>
       <c r="T36" s="23"/>
       <c r="U36" s="23"/>
-      <c r="V36" s="47"/>
+      <c r="V36" s="42"/>
     </row>
     <row r="37" spans="2:22" ht="46.5" customHeight="1">
-      <c r="B37" s="44"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
-      <c r="I37" s="46"/>
+      <c r="I37" s="41"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
       <c r="M37" s="23"/>
-      <c r="N37" s="52"/>
+      <c r="N37" s="47"/>
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="54" t="s">
+      <c r="Q37" s="48"/>
+      <c r="R37" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="S37" s="119">
+      <c r="S37" s="111">
         <f>SUM(O22:R35)</f>
         <v>0</v>
       </c>
-      <c r="T37" s="119"/>
-      <c r="U37" s="119"/>
-      <c r="V37" s="47"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="42"/>
     </row>
     <row r="38" spans="2:22" ht="15" customHeight="1">
-      <c r="B38" s="44"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
@@ -2261,19 +2313,19 @@
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
       <c r="U38" s="23"/>
-      <c r="V38" s="47"/>
-    </row>
-    <row r="39" spans="2:22" ht="37.5">
-      <c r="B39" s="44"/>
-      <c r="C39" s="45" t="s">
+      <c r="V38" s="42"/>
+    </row>
+    <row r="39" spans="2:22" ht="37.799999999999997">
+      <c r="B39" s="39"/>
+      <c r="C39" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
@@ -2286,17 +2338,17 @@
       <c r="S39" s="23"/>
       <c r="T39" s="23"/>
       <c r="U39" s="23"/>
-      <c r="V39" s="47"/>
+      <c r="V39" s="42"/>
     </row>
     <row r="40" spans="2:22" ht="26.25" customHeight="1">
-      <c r="B40" s="44"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
@@ -2309,46 +2361,46 @@
       <c r="S40" s="23"/>
       <c r="T40" s="23"/>
       <c r="U40" s="23"/>
-      <c r="V40" s="47"/>
-    </row>
-    <row r="41" spans="2:22" ht="44.25">
-      <c r="B41" s="44"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="131" t="s">
+      <c r="V40" s="42"/>
+    </row>
+    <row r="41" spans="2:22" ht="44.4">
+      <c r="B41" s="39"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="77" t="s">
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="131" t="s">
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="P41" s="131"/>
-      <c r="Q41" s="131"/>
-      <c r="R41" s="131"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="119"/>
+      <c r="R41" s="119"/>
       <c r="S41" s="23"/>
       <c r="T41" s="23"/>
       <c r="U41" s="23"/>
-      <c r="V41" s="47"/>
+      <c r="V41" s="42"/>
     </row>
     <row r="42" spans="2:22" ht="18" customHeight="1">
-      <c r="B42" s="44"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
@@ -2361,295 +2413,295 @@
       <c r="S42" s="23"/>
       <c r="T42" s="23"/>
       <c r="U42" s="23"/>
-      <c r="V42" s="47"/>
+      <c r="V42" s="42"/>
     </row>
     <row r="43" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B43" s="44"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
       <c r="J43" s="23"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="98" t="s">
+      <c r="K43" s="50"/>
+      <c r="L43" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="M43" s="98"/>
-      <c r="N43" s="98"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="121"/>
-      <c r="R43" s="121"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="113"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="113"/>
       <c r="S43" s="23"/>
       <c r="T43" s="23"/>
       <c r="U43" s="23"/>
-      <c r="V43" s="47"/>
+      <c r="V43" s="42"/>
     </row>
     <row r="44" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B44" s="44"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="98" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="98"/>
-      <c r="N44" s="98"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="121"/>
-      <c r="R44" s="121"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
       <c r="S44" s="23"/>
       <c r="T44" s="23"/>
       <c r="U44" s="23"/>
-      <c r="V44" s="47"/>
+      <c r="V44" s="42"/>
     </row>
     <row r="45" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B45" s="44"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="98" t="s">
+      <c r="B45" s="39"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="M45" s="98"/>
-      <c r="N45" s="98"/>
-      <c r="O45" s="121"/>
-      <c r="P45" s="121"/>
-      <c r="Q45" s="121"/>
-      <c r="R45" s="121"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
       <c r="S45" s="23"/>
       <c r="T45" s="23"/>
       <c r="U45" s="23"/>
-      <c r="V45" s="47"/>
+      <c r="V45" s="42"/>
     </row>
     <row r="46" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B46" s="44"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="98" t="s">
+      <c r="B46" s="39"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="M46" s="98"/>
-      <c r="N46" s="98"/>
-      <c r="O46" s="121"/>
-      <c r="P46" s="121"/>
-      <c r="Q46" s="121"/>
-      <c r="R46" s="121"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="113"/>
+      <c r="P46" s="113"/>
+      <c r="Q46" s="113"/>
+      <c r="R46" s="113"/>
       <c r="S46" s="23"/>
       <c r="T46" s="23"/>
       <c r="U46" s="23"/>
-      <c r="V46" s="47"/>
+      <c r="V46" s="42"/>
     </row>
     <row r="47" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B47" s="44"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="98" t="s">
+      <c r="B47" s="39"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="M47" s="98"/>
-      <c r="N47" s="98"/>
-      <c r="O47" s="121"/>
-      <c r="P47" s="121"/>
-      <c r="Q47" s="121"/>
-      <c r="R47" s="121"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="113"/>
+      <c r="Q47" s="113"/>
+      <c r="R47" s="113"/>
       <c r="S47" s="23"/>
       <c r="T47" s="23"/>
       <c r="U47" s="23"/>
-      <c r="V47" s="47"/>
+      <c r="V47" s="42"/>
     </row>
     <row r="48" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B48" s="44"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="46"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="41"/>
       <c r="L48" s="23"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="52" t="s">
+      <c r="M48" s="43"/>
+      <c r="N48" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O48" s="120">
+      <c r="O48" s="112">
         <f>SUM(O43:R47)</f>
         <v>0</v>
       </c>
-      <c r="P48" s="120"/>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="120"/>
+      <c r="P48" s="112"/>
+      <c r="Q48" s="112"/>
+      <c r="R48" s="112"/>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
       <c r="U48" s="23"/>
-      <c r="V48" s="47"/>
+      <c r="V48" s="42"/>
     </row>
     <row r="49" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B49" s="44"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="46"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="41"/>
       <c r="L49" s="23"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
       <c r="P49" s="23"/>
       <c r="Q49" s="23"/>
       <c r="R49" s="23"/>
       <c r="S49" s="23"/>
       <c r="T49" s="23"/>
       <c r="U49" s="23"/>
-      <c r="V49" s="47"/>
+      <c r="V49" s="42"/>
     </row>
     <row r="50" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B50" s="44"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="98"/>
-      <c r="O50" s="126"/>
-      <c r="P50" s="126"/>
-      <c r="Q50" s="126"/>
-      <c r="R50" s="126"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="120"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="120"/>
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
       <c r="U50" s="23"/>
-      <c r="V50" s="47"/>
+      <c r="V50" s="42"/>
     </row>
     <row r="51" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B51" s="44"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="111"/>
-      <c r="K51" s="111"/>
-      <c r="L51" s="111"/>
-      <c r="M51" s="111"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="79"/>
-      <c r="R51" s="79" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="S51" s="122">
+      <c r="S51" s="114">
         <f>SUM(O43:R47,O50:R53)</f>
         <v>0</v>
       </c>
-      <c r="T51" s="122"/>
-      <c r="U51" s="122"/>
-      <c r="V51" s="47"/>
+      <c r="T51" s="114"/>
+      <c r="U51" s="114"/>
+      <c r="V51" s="42"/>
     </row>
     <row r="52" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B52" s="44"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="111"/>
-      <c r="K52" s="111"/>
-      <c r="L52" s="111"/>
-      <c r="M52" s="111"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="78"/>
-      <c r="P52" s="78"/>
-      <c r="Q52" s="78"/>
-      <c r="R52" s="78"/>
-      <c r="S52" s="78"/>
-      <c r="T52" s="78"/>
-      <c r="U52" s="78"/>
-      <c r="V52" s="47"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="69"/>
+      <c r="V52" s="42"/>
     </row>
     <row r="53" spans="2:22" ht="51.75" customHeight="1">
-      <c r="B53" s="44"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="111"/>
-      <c r="F53" s="111"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="111"/>
-      <c r="I53" s="111"/>
-      <c r="J53" s="111"/>
-      <c r="K53" s="111"/>
-      <c r="L53" s="111"/>
-      <c r="M53" s="111"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
       <c r="N53" s="23"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
-      <c r="Q53" s="79"/>
-      <c r="R53" s="79" t="s">
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="S53" s="118">
+      <c r="S53" s="110">
         <f>S37-S51</f>
         <v>0</v>
       </c>
-      <c r="T53" s="118"/>
-      <c r="U53" s="118"/>
-      <c r="V53" s="47"/>
+      <c r="T53" s="110"/>
+      <c r="U53" s="110"/>
+      <c r="V53" s="42"/>
     </row>
     <row r="54" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B54" s="44"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
@@ -2662,17 +2714,17 @@
       <c r="S54" s="23"/>
       <c r="T54" s="23"/>
       <c r="U54" s="23"/>
-      <c r="V54" s="47"/>
+      <c r="V54" s="42"/>
     </row>
     <row r="55" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B55" s="44"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
@@ -2685,17 +2737,17 @@
       <c r="S55" s="23"/>
       <c r="T55" s="23"/>
       <c r="U55" s="23"/>
-      <c r="V55" s="47"/>
+      <c r="V55" s="42"/>
     </row>
     <row r="56" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B56" s="44"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
@@ -2708,17 +2760,17 @@
       <c r="S56" s="23"/>
       <c r="T56" s="23"/>
       <c r="U56" s="23"/>
-      <c r="V56" s="47"/>
+      <c r="V56" s="42"/>
     </row>
     <row r="57" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B57" s="44"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
@@ -2731,17 +2783,17 @@
       <c r="S57" s="23"/>
       <c r="T57" s="23"/>
       <c r="U57" s="23"/>
-      <c r="V57" s="47"/>
+      <c r="V57" s="42"/>
     </row>
     <row r="58" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B58" s="44"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
@@ -2754,17 +2806,17 @@
       <c r="S58" s="23"/>
       <c r="T58" s="23"/>
       <c r="U58" s="23"/>
-      <c r="V58" s="47"/>
+      <c r="V58" s="42"/>
     </row>
     <row r="59" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B59" s="44"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
@@ -2777,17 +2829,17 @@
       <c r="S59" s="23"/>
       <c r="T59" s="23"/>
       <c r="U59" s="23"/>
-      <c r="V59" s="47"/>
+      <c r="V59" s="42"/>
     </row>
     <row r="60" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B60" s="44"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
       <c r="J60" s="23"/>
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
@@ -2800,17 +2852,17 @@
       <c r="S60" s="23"/>
       <c r="T60" s="23"/>
       <c r="U60" s="23"/>
-      <c r="V60" s="47"/>
+      <c r="V60" s="42"/>
     </row>
     <row r="61" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B61" s="44"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
@@ -2823,17 +2875,17 @@
       <c r="S61" s="23"/>
       <c r="T61" s="23"/>
       <c r="U61" s="23"/>
-      <c r="V61" s="47"/>
+      <c r="V61" s="42"/>
     </row>
     <row r="62" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B62" s="44"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
@@ -2846,17 +2898,17 @@
       <c r="S62" s="23"/>
       <c r="T62" s="23"/>
       <c r="U62" s="23"/>
-      <c r="V62" s="47"/>
+      <c r="V62" s="42"/>
     </row>
     <row r="63" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B63" s="44"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
       <c r="J63" s="23"/>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
@@ -2869,17 +2921,17 @@
       <c r="S63" s="23"/>
       <c r="T63" s="23"/>
       <c r="U63" s="23"/>
-      <c r="V63" s="47"/>
+      <c r="V63" s="42"/>
     </row>
     <row r="64" spans="2:22" ht="22.5" customHeight="1">
-      <c r="B64" s="44"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
@@ -2892,17 +2944,17 @@
       <c r="S64" s="23"/>
       <c r="T64" s="23"/>
       <c r="U64" s="23"/>
-      <c r="V64" s="47"/>
+      <c r="V64" s="42"/>
     </row>
     <row r="65" spans="1:23" ht="22.5" customHeight="1">
-      <c r="B65" s="44"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
@@ -2915,17 +2967,17 @@
       <c r="S65" s="23"/>
       <c r="T65" s="23"/>
       <c r="U65" s="23"/>
-      <c r="V65" s="47"/>
+      <c r="V65" s="42"/>
     </row>
     <row r="66" spans="1:23" ht="22.5" customHeight="1">
-      <c r="B66" s="44"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
       <c r="J66" s="23"/>
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
@@ -2938,33 +2990,33 @@
       <c r="S66" s="23"/>
       <c r="T66" s="23"/>
       <c r="U66" s="23"/>
-      <c r="V66" s="47"/>
+      <c r="V66" s="42"/>
     </row>
     <row r="67" spans="1:23" ht="47.25" customHeight="1">
-      <c r="B67" s="44"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
       <c r="J67" s="23"/>
       <c r="K67" s="23"/>
       <c r="L67" s="23"/>
       <c r="M67" s="23"/>
       <c r="N67" s="23"/>
-      <c r="O67" s="53"/>
-      <c r="P67" s="53"/>
-      <c r="Q67" s="53"/>
-      <c r="R67" s="53"/>
-      <c r="S67" s="53"/>
-      <c r="T67" s="53"/>
-      <c r="U67" s="53"/>
-      <c r="V67" s="47"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="48"/>
+      <c r="T67" s="48"/>
+      <c r="U67" s="48"/>
+      <c r="V67" s="42"/>
     </row>
     <row r="68" spans="1:23">
-      <c r="B68" s="44"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
@@ -2977,17 +3029,17 @@
       <c r="L68" s="23"/>
       <c r="M68" s="23"/>
       <c r="N68" s="23"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="53"/>
-      <c r="T68" s="53"/>
-      <c r="U68" s="53"/>
-      <c r="V68" s="47"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="48"/>
+      <c r="R68" s="48"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="48"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="42"/>
     </row>
     <row r="69" spans="1:23" ht="44.25" customHeight="1">
-      <c r="B69" s="44"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
@@ -3000,17 +3052,17 @@
       <c r="L69" s="23"/>
       <c r="M69" s="23"/>
       <c r="N69" s="23"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="53"/>
-      <c r="S69" s="53"/>
-      <c r="T69" s="53"/>
-      <c r="U69" s="53"/>
-      <c r="V69" s="47"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="48"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="48"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="48"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="42"/>
     </row>
     <row r="70" spans="1:23">
-      <c r="B70" s="44"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="23"/>
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
@@ -3030,506 +3082,506 @@
       <c r="S70" s="23"/>
       <c r="T70" s="23"/>
       <c r="U70" s="23"/>
-      <c r="V70" s="47"/>
+      <c r="V70" s="42"/>
     </row>
     <row r="71" spans="1:23">
-      <c r="B71" s="44"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="23"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
-      <c r="I71" s="69"/>
-      <c r="J71" s="69"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
-      <c r="M71" s="69"/>
-      <c r="N71" s="69"/>
-      <c r="O71" s="69"/>
-      <c r="P71" s="69"/>
-      <c r="Q71" s="69"/>
-      <c r="R71" s="69"/>
-      <c r="S71" s="69"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="O71" s="64"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="64"/>
+      <c r="R71" s="64"/>
+      <c r="S71" s="64"/>
       <c r="T71" s="23"/>
       <c r="U71" s="23"/>
-      <c r="V71" s="47"/>
-    </row>
-    <row r="72" spans="1:23" ht="37.5">
-      <c r="B72" s="44"/>
+      <c r="V71" s="42"/>
+    </row>
+    <row r="72" spans="1:23" ht="37.200000000000003">
+      <c r="B72" s="39"/>
       <c r="C72" s="23"/>
-      <c r="D72" s="98" t="s">
+      <c r="D72" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="98"/>
-      <c r="F72" s="98"/>
-      <c r="G72" s="98"/>
-      <c r="H72" s="98"/>
-      <c r="I72" s="98"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="98" t="s">
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="87"/>
+      <c r="H72" s="87"/>
+      <c r="I72" s="87"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="N72" s="98"/>
-      <c r="O72" s="98"/>
-      <c r="P72" s="98"/>
-      <c r="Q72" s="98"/>
-      <c r="R72" s="98"/>
-      <c r="S72" s="98"/>
+      <c r="N72" s="87"/>
+      <c r="O72" s="87"/>
+      <c r="P72" s="87"/>
+      <c r="Q72" s="87"/>
+      <c r="R72" s="87"/>
+      <c r="S72" s="87"/>
       <c r="T72" s="23"/>
       <c r="U72" s="23"/>
-      <c r="V72" s="47"/>
+      <c r="V72" s="42"/>
     </row>
     <row r="73" spans="1:23" ht="57.75" customHeight="1">
-      <c r="B73" s="44"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="23"/>
-      <c r="D73" s="134" t="s">
+      <c r="D73" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="134"/>
-      <c r="F73" s="134"/>
-      <c r="G73" s="134"/>
-      <c r="H73" s="134"/>
-      <c r="I73" s="134"/>
-      <c r="J73" s="134"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="123"/>
+      <c r="G73" s="123"/>
+      <c r="H73" s="123"/>
+      <c r="I73" s="123"/>
+      <c r="J73" s="123"/>
       <c r="K73" s="23"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="134" t="s">
+      <c r="L73" s="67"/>
+      <c r="M73" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N73" s="134"/>
-      <c r="O73" s="134"/>
-      <c r="P73" s="134"/>
-      <c r="Q73" s="134"/>
-      <c r="R73" s="134"/>
-      <c r="S73" s="134"/>
+      <c r="N73" s="123"/>
+      <c r="O73" s="123"/>
+      <c r="P73" s="123"/>
+      <c r="Q73" s="123"/>
+      <c r="R73" s="123"/>
+      <c r="S73" s="123"/>
       <c r="T73" s="23"/>
       <c r="U73" s="23"/>
-      <c r="V73" s="47"/>
-    </row>
-    <row r="74" spans="1:23" ht="26.25" thickBot="1">
-      <c r="B74" s="57"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="58"/>
-      <c r="L74" s="58"/>
-      <c r="M74" s="58"/>
-      <c r="N74" s="58"/>
-      <c r="O74" s="58"/>
-      <c r="P74" s="58"/>
-      <c r="Q74" s="58"/>
-      <c r="R74" s="58"/>
-      <c r="S74" s="58"/>
-      <c r="T74" s="58"/>
-      <c r="U74" s="58"/>
-      <c r="V74" s="59"/>
+      <c r="V73" s="42"/>
+    </row>
+    <row r="74" spans="1:23" ht="25.2" thickBot="1">
+      <c r="B74" s="52"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="53"/>
+      <c r="L74" s="53"/>
+      <c r="M74" s="53"/>
+      <c r="N74" s="53"/>
+      <c r="O74" s="53"/>
+      <c r="P74" s="53"/>
+      <c r="Q74" s="53"/>
+      <c r="R74" s="53"/>
+      <c r="S74" s="53"/>
+      <c r="T74" s="53"/>
+      <c r="U74" s="53"/>
+      <c r="V74" s="54"/>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="2"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="63"/>
-      <c r="K76" s="63"/>
-      <c r="L76" s="63"/>
-      <c r="M76" s="63"/>
-      <c r="N76" s="63"/>
-      <c r="O76" s="63"/>
-      <c r="P76" s="63"/>
-      <c r="Q76" s="63"/>
-      <c r="R76" s="63"/>
-      <c r="S76" s="63"/>
-      <c r="T76" s="63"/>
-      <c r="U76" s="63"/>
-      <c r="V76" s="63"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="58"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="58"/>
+      <c r="N76" s="58"/>
+      <c r="O76" s="58"/>
+      <c r="P76" s="58"/>
+      <c r="Q76" s="58"/>
+      <c r="R76" s="58"/>
+      <c r="S76" s="58"/>
+      <c r="T76" s="58"/>
+      <c r="U76" s="58"/>
+      <c r="V76" s="58"/>
       <c r="W76" s="2"/>
     </row>
     <row r="77" spans="1:23" ht="81" customHeight="1">
       <c r="A77" s="2"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="117"/>
-      <c r="D77" s="117"/>
-      <c r="E77" s="117"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="117"/>
-      <c r="P77" s="117"/>
-      <c r="Q77" s="117"/>
-      <c r="R77" s="117"/>
-      <c r="S77" s="117"/>
-      <c r="T77" s="117"/>
-      <c r="U77" s="117"/>
-      <c r="V77" s="63"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="108"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="108"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="108"/>
+      <c r="H77" s="108"/>
+      <c r="I77" s="108"/>
+      <c r="J77" s="108"/>
+      <c r="K77" s="108"/>
+      <c r="L77" s="108"/>
+      <c r="M77" s="108"/>
+      <c r="N77" s="108"/>
+      <c r="O77" s="108"/>
+      <c r="P77" s="108"/>
+      <c r="Q77" s="108"/>
+      <c r="R77" s="108"/>
+      <c r="S77" s="108"/>
+      <c r="T77" s="108"/>
+      <c r="U77" s="108"/>
+      <c r="V77" s="58"/>
       <c r="W77" s="2"/>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="2"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="63"/>
-      <c r="O78" s="63"/>
-      <c r="P78" s="63"/>
-      <c r="Q78" s="63"/>
-      <c r="R78" s="63"/>
-      <c r="S78" s="63"/>
-      <c r="T78" s="63"/>
-      <c r="U78" s="63"/>
-      <c r="V78" s="63"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="58"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="58"/>
+      <c r="L78" s="58"/>
+      <c r="M78" s="58"/>
+      <c r="N78" s="58"/>
+      <c r="O78" s="58"/>
+      <c r="P78" s="58"/>
+      <c r="Q78" s="58"/>
+      <c r="R78" s="58"/>
+      <c r="S78" s="58"/>
+      <c r="T78" s="58"/>
+      <c r="U78" s="58"/>
+      <c r="V78" s="58"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" ht="37.5">
+    <row r="79" spans="1:23" ht="37.200000000000003">
       <c r="A79" s="2"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="63"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="63"/>
-      <c r="M79" s="63"/>
-      <c r="N79" s="63"/>
-      <c r="O79" s="63"/>
-      <c r="P79" s="63"/>
-      <c r="Q79" s="63"/>
-      <c r="R79" s="63"/>
-      <c r="S79" s="63"/>
-      <c r="T79" s="63"/>
-      <c r="U79" s="63"/>
-      <c r="V79" s="63"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="58"/>
+      <c r="O79" s="58"/>
+      <c r="P79" s="58"/>
+      <c r="Q79" s="58"/>
+      <c r="R79" s="58"/>
+      <c r="S79" s="58"/>
+      <c r="T79" s="58"/>
+      <c r="U79" s="58"/>
+      <c r="V79" s="58"/>
       <c r="W79" s="2"/>
     </row>
     <row r="80" spans="1:23" ht="53.25" customHeight="1">
       <c r="A80" s="2"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="116"/>
-      <c r="F80" s="116"/>
-      <c r="G80" s="116"/>
-      <c r="H80" s="116"/>
-      <c r="I80" s="116"/>
-      <c r="J80" s="116"/>
-      <c r="K80" s="116"/>
-      <c r="L80" s="116"/>
-      <c r="M80" s="116"/>
-      <c r="N80" s="116"/>
-      <c r="O80" s="114"/>
-      <c r="P80" s="114"/>
-      <c r="Q80" s="114"/>
-      <c r="R80" s="114"/>
-      <c r="S80" s="63"/>
-      <c r="T80" s="63"/>
-      <c r="U80" s="63"/>
-      <c r="V80" s="63"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="107"/>
+      <c r="F80" s="107"/>
+      <c r="G80" s="107"/>
+      <c r="H80" s="107"/>
+      <c r="I80" s="107"/>
+      <c r="J80" s="107"/>
+      <c r="K80" s="107"/>
+      <c r="L80" s="107"/>
+      <c r="M80" s="107"/>
+      <c r="N80" s="107"/>
+      <c r="O80" s="106"/>
+      <c r="P80" s="106"/>
+      <c r="Q80" s="106"/>
+      <c r="R80" s="106"/>
+      <c r="S80" s="58"/>
+      <c r="T80" s="58"/>
+      <c r="U80" s="58"/>
+      <c r="V80" s="58"/>
       <c r="W80" s="2"/>
     </row>
     <row r="81" spans="1:23" ht="53.25" customHeight="1">
       <c r="A81" s="2"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="116"/>
-      <c r="F81" s="116"/>
-      <c r="G81" s="116"/>
-      <c r="H81" s="116"/>
-      <c r="I81" s="116"/>
-      <c r="J81" s="116"/>
-      <c r="K81" s="116"/>
-      <c r="L81" s="116"/>
-      <c r="M81" s="116"/>
-      <c r="N81" s="116"/>
-      <c r="O81" s="114"/>
-      <c r="P81" s="114"/>
-      <c r="Q81" s="114"/>
-      <c r="R81" s="114"/>
-      <c r="S81" s="63"/>
-      <c r="T81" s="63"/>
-      <c r="U81" s="63"/>
-      <c r="V81" s="63"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="107"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="107"/>
+      <c r="I81" s="107"/>
+      <c r="J81" s="107"/>
+      <c r="K81" s="107"/>
+      <c r="L81" s="107"/>
+      <c r="M81" s="107"/>
+      <c r="N81" s="107"/>
+      <c r="O81" s="106"/>
+      <c r="P81" s="106"/>
+      <c r="Q81" s="106"/>
+      <c r="R81" s="106"/>
+      <c r="S81" s="58"/>
+      <c r="T81" s="58"/>
+      <c r="U81" s="58"/>
+      <c r="V81" s="58"/>
       <c r="W81" s="2"/>
     </row>
     <row r="82" spans="1:23" ht="53.25" customHeight="1">
       <c r="A82" s="2"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="63"/>
-      <c r="K82" s="63"/>
-      <c r="L82" s="63"/>
-      <c r="M82" s="63"/>
-      <c r="N82" s="66"/>
-      <c r="O82" s="114"/>
-      <c r="P82" s="114"/>
-      <c r="Q82" s="114"/>
-      <c r="R82" s="114"/>
-      <c r="S82" s="63"/>
-      <c r="T82" s="63"/>
-      <c r="U82" s="63"/>
-      <c r="V82" s="63"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="58"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="106"/>
+      <c r="P82" s="106"/>
+      <c r="Q82" s="106"/>
+      <c r="R82" s="106"/>
+      <c r="S82" s="58"/>
+      <c r="T82" s="58"/>
+      <c r="U82" s="58"/>
+      <c r="V82" s="58"/>
       <c r="W82" s="2"/>
     </row>
     <row r="83" spans="1:23" ht="18" customHeight="1">
       <c r="A83" s="2"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="64"/>
-      <c r="J83" s="63"/>
-      <c r="K83" s="63"/>
-      <c r="L83" s="63"/>
-      <c r="M83" s="63"/>
-      <c r="N83" s="63"/>
-      <c r="O83" s="63"/>
-      <c r="P83" s="63"/>
-      <c r="Q83" s="63"/>
-      <c r="R83" s="63"/>
-      <c r="S83" s="63"/>
-      <c r="T83" s="63"/>
-      <c r="U83" s="63"/>
-      <c r="V83" s="63"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="58"/>
+      <c r="L83" s="58"/>
+      <c r="M83" s="58"/>
+      <c r="N83" s="58"/>
+      <c r="O83" s="58"/>
+      <c r="P83" s="58"/>
+      <c r="Q83" s="58"/>
+      <c r="R83" s="58"/>
+      <c r="S83" s="58"/>
+      <c r="T83" s="58"/>
+      <c r="U83" s="58"/>
+      <c r="V83" s="58"/>
       <c r="W83" s="2"/>
     </row>
     <row r="84" spans="1:23" ht="108.75" customHeight="1">
       <c r="A84" s="2"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="117"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
-      <c r="G84" s="117"/>
-      <c r="H84" s="117"/>
-      <c r="I84" s="117"/>
-      <c r="J84" s="115"/>
-      <c r="K84" s="115"/>
-      <c r="L84" s="115"/>
-      <c r="M84" s="115"/>
-      <c r="N84" s="115"/>
-      <c r="O84" s="114"/>
-      <c r="P84" s="114"/>
-      <c r="Q84" s="114"/>
-      <c r="R84" s="114"/>
-      <c r="S84" s="63"/>
-      <c r="T84" s="63"/>
-      <c r="U84" s="63"/>
-      <c r="V84" s="63"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="108"/>
+      <c r="F84" s="108"/>
+      <c r="G84" s="108"/>
+      <c r="H84" s="108"/>
+      <c r="I84" s="108"/>
+      <c r="J84" s="109"/>
+      <c r="K84" s="109"/>
+      <c r="L84" s="109"/>
+      <c r="M84" s="109"/>
+      <c r="N84" s="109"/>
+      <c r="O84" s="106"/>
+      <c r="P84" s="106"/>
+      <c r="Q84" s="106"/>
+      <c r="R84" s="106"/>
+      <c r="S84" s="58"/>
+      <c r="T84" s="58"/>
+      <c r="U84" s="58"/>
+      <c r="V84" s="58"/>
       <c r="W84" s="2"/>
     </row>
     <row r="85" spans="1:23" ht="18.75" customHeight="1">
       <c r="A85" s="2"/>
-      <c r="B85" s="63"/>
-      <c r="C85" s="63"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="64"/>
-      <c r="J85" s="63"/>
-      <c r="K85" s="63"/>
-      <c r="L85" s="63"/>
-      <c r="M85" s="63"/>
-      <c r="N85" s="63"/>
-      <c r="O85" s="63"/>
-      <c r="P85" s="63"/>
-      <c r="Q85" s="63"/>
-      <c r="R85" s="63"/>
-      <c r="S85" s="63"/>
-      <c r="T85" s="63"/>
-      <c r="U85" s="63"/>
-      <c r="V85" s="63"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="58"/>
+      <c r="K85" s="58"/>
+      <c r="L85" s="58"/>
+      <c r="M85" s="58"/>
+      <c r="N85" s="58"/>
+      <c r="O85" s="58"/>
+      <c r="P85" s="58"/>
+      <c r="Q85" s="58"/>
+      <c r="R85" s="58"/>
+      <c r="S85" s="58"/>
+      <c r="T85" s="58"/>
+      <c r="U85" s="58"/>
+      <c r="V85" s="58"/>
       <c r="W85" s="2"/>
     </row>
     <row r="86" spans="1:23" ht="41.25" customHeight="1">
       <c r="A86" s="2"/>
-      <c r="B86" s="63"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="116"/>
-      <c r="E86" s="116"/>
-      <c r="F86" s="116"/>
-      <c r="G86" s="116"/>
-      <c r="H86" s="116"/>
-      <c r="I86" s="116"/>
-      <c r="J86" s="116"/>
-      <c r="K86" s="116"/>
-      <c r="L86" s="116"/>
-      <c r="M86" s="116"/>
-      <c r="N86" s="116"/>
-      <c r="O86" s="114"/>
-      <c r="P86" s="114"/>
-      <c r="Q86" s="114"/>
-      <c r="R86" s="114"/>
-      <c r="S86" s="63"/>
-      <c r="T86" s="63"/>
-      <c r="U86" s="63"/>
-      <c r="V86" s="63"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="107"/>
+      <c r="I86" s="107"/>
+      <c r="J86" s="107"/>
+      <c r="K86" s="107"/>
+      <c r="L86" s="107"/>
+      <c r="M86" s="107"/>
+      <c r="N86" s="107"/>
+      <c r="O86" s="106"/>
+      <c r="P86" s="106"/>
+      <c r="Q86" s="106"/>
+      <c r="R86" s="106"/>
+      <c r="S86" s="58"/>
+      <c r="T86" s="58"/>
+      <c r="U86" s="58"/>
+      <c r="V86" s="58"/>
       <c r="W86" s="2"/>
     </row>
     <row r="87" spans="1:23" ht="18.75" customHeight="1">
       <c r="A87" s="2"/>
-      <c r="B87" s="63"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="63"/>
-      <c r="K87" s="63"/>
-      <c r="L87" s="63"/>
-      <c r="M87" s="63"/>
-      <c r="N87" s="63"/>
-      <c r="O87" s="63"/>
-      <c r="P87" s="63"/>
-      <c r="Q87" s="63"/>
-      <c r="R87" s="63"/>
-      <c r="S87" s="63"/>
-      <c r="T87" s="63"/>
-      <c r="U87" s="63"/>
-      <c r="V87" s="63"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="58"/>
+      <c r="L87" s="58"/>
+      <c r="M87" s="58"/>
+      <c r="N87" s="58"/>
+      <c r="O87" s="58"/>
+      <c r="P87" s="58"/>
+      <c r="Q87" s="58"/>
+      <c r="R87" s="58"/>
+      <c r="S87" s="58"/>
+      <c r="T87" s="58"/>
+      <c r="U87" s="58"/>
+      <c r="V87" s="58"/>
       <c r="W87" s="2"/>
     </row>
     <row r="88" spans="1:23" ht="41.25" customHeight="1">
       <c r="A88" s="2"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="116"/>
-      <c r="E88" s="116"/>
-      <c r="F88" s="116"/>
-      <c r="G88" s="116"/>
-      <c r="H88" s="116"/>
-      <c r="I88" s="116"/>
-      <c r="J88" s="116"/>
-      <c r="K88" s="116"/>
-      <c r="L88" s="116"/>
-      <c r="M88" s="116"/>
-      <c r="N88" s="116"/>
-      <c r="O88" s="114"/>
-      <c r="P88" s="114"/>
-      <c r="Q88" s="114"/>
-      <c r="R88" s="114"/>
-      <c r="S88" s="63"/>
-      <c r="T88" s="63"/>
-      <c r="U88" s="63"/>
-      <c r="V88" s="63"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="107"/>
+      <c r="E88" s="107"/>
+      <c r="F88" s="107"/>
+      <c r="G88" s="107"/>
+      <c r="H88" s="107"/>
+      <c r="I88" s="107"/>
+      <c r="J88" s="107"/>
+      <c r="K88" s="107"/>
+      <c r="L88" s="107"/>
+      <c r="M88" s="107"/>
+      <c r="N88" s="107"/>
+      <c r="O88" s="106"/>
+      <c r="P88" s="106"/>
+      <c r="Q88" s="106"/>
+      <c r="R88" s="106"/>
+      <c r="S88" s="58"/>
+      <c r="T88" s="58"/>
+      <c r="U88" s="58"/>
+      <c r="V88" s="58"/>
       <c r="W88" s="2"/>
     </row>
     <row r="89" spans="1:23" ht="18.75" customHeight="1">
       <c r="A89" s="2"/>
-      <c r="B89" s="63"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="64"/>
-      <c r="H89" s="64"/>
-      <c r="I89" s="64"/>
-      <c r="J89" s="63"/>
-      <c r="K89" s="63"/>
-      <c r="L89" s="63"/>
-      <c r="M89" s="63"/>
-      <c r="N89" s="63"/>
-      <c r="O89" s="63"/>
-      <c r="P89" s="63"/>
-      <c r="Q89" s="63"/>
-      <c r="R89" s="63"/>
-      <c r="S89" s="63"/>
-      <c r="T89" s="63"/>
-      <c r="U89" s="63"/>
-      <c r="V89" s="63"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="58"/>
+      <c r="L89" s="58"/>
+      <c r="M89" s="58"/>
+      <c r="N89" s="58"/>
+      <c r="O89" s="58"/>
+      <c r="P89" s="58"/>
+      <c r="Q89" s="58"/>
+      <c r="R89" s="58"/>
+      <c r="S89" s="58"/>
+      <c r="T89" s="58"/>
+      <c r="U89" s="58"/>
+      <c r="V89" s="58"/>
       <c r="W89" s="2"/>
     </row>
     <row r="90" spans="1:23" ht="41.25" customHeight="1">
       <c r="A90" s="2"/>
-      <c r="B90" s="63"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="116"/>
-      <c r="E90" s="116"/>
-      <c r="F90" s="116"/>
-      <c r="G90" s="116"/>
-      <c r="H90" s="116"/>
-      <c r="I90" s="116"/>
-      <c r="J90" s="116"/>
-      <c r="K90" s="116"/>
-      <c r="L90" s="116"/>
-      <c r="M90" s="116"/>
-      <c r="N90" s="116"/>
-      <c r="O90" s="114"/>
-      <c r="P90" s="114"/>
-      <c r="Q90" s="114"/>
-      <c r="R90" s="114"/>
-      <c r="S90" s="63"/>
-      <c r="T90" s="63"/>
-      <c r="U90" s="63"/>
-      <c r="V90" s="63"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="107"/>
+      <c r="E90" s="107"/>
+      <c r="F90" s="107"/>
+      <c r="G90" s="107"/>
+      <c r="H90" s="107"/>
+      <c r="I90" s="107"/>
+      <c r="J90" s="107"/>
+      <c r="K90" s="107"/>
+      <c r="L90" s="107"/>
+      <c r="M90" s="107"/>
+      <c r="N90" s="107"/>
+      <c r="O90" s="106"/>
+      <c r="P90" s="106"/>
+      <c r="Q90" s="106"/>
+      <c r="R90" s="106"/>
+      <c r="S90" s="58"/>
+      <c r="T90" s="58"/>
+      <c r="U90" s="58"/>
+      <c r="V90" s="58"/>
       <c r="W90" s="2"/>
     </row>
     <row r="91" spans="1:23">
       <c r="A91" s="2"/>
-      <c r="B91" s="63"/>
-      <c r="C91" s="63"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
-      <c r="G91" s="63"/>
-      <c r="H91" s="63"/>
-      <c r="I91" s="63"/>
-      <c r="J91" s="63"/>
-      <c r="K91" s="63"/>
-      <c r="L91" s="63"/>
-      <c r="M91" s="63"/>
-      <c r="N91" s="63"/>
-      <c r="O91" s="63"/>
-      <c r="P91" s="63"/>
-      <c r="Q91" s="63"/>
-      <c r="R91" s="63"/>
-      <c r="S91" s="63"/>
-      <c r="T91" s="63"/>
-      <c r="U91" s="63"/>
-      <c r="V91" s="63"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
+      <c r="J91" s="58"/>
+      <c r="K91" s="58"/>
+      <c r="L91" s="58"/>
+      <c r="M91" s="58"/>
+      <c r="N91" s="58"/>
+      <c r="O91" s="58"/>
+      <c r="P91" s="58"/>
+      <c r="Q91" s="58"/>
+      <c r="R91" s="58"/>
+      <c r="S91" s="58"/>
+      <c r="T91" s="58"/>
+      <c r="U91" s="58"/>
+      <c r="V91" s="58"/>
       <c r="W91" s="2"/>
     </row>
     <row r="92" spans="1:23">
@@ -3568,37 +3620,37 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="95"/>
-      <c r="M93" s="95"/>
-      <c r="N93" s="95"/>
-      <c r="O93" s="95"/>
+      <c r="L93" s="84"/>
+      <c r="M93" s="84"/>
+      <c r="N93" s="84"/>
+      <c r="O93" s="84"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
-      <c r="R93" s="96"/>
-      <c r="S93" s="97"/>
-      <c r="T93" s="97"/>
+      <c r="R93" s="85"/>
+      <c r="S93" s="86"/>
+      <c r="T93" s="86"/>
       <c r="U93" s="5"/>
       <c r="V93" s="5"/>
     </row>
     <row r="94" spans="1:23" ht="25.5" customHeight="1">
-      <c r="L94" s="95"/>
-      <c r="M94" s="95"/>
-      <c r="N94" s="95"/>
-      <c r="O94" s="95"/>
-      <c r="R94" s="97"/>
-      <c r="S94" s="97"/>
-      <c r="T94" s="97"/>
+      <c r="L94" s="84"/>
+      <c r="M94" s="84"/>
+      <c r="N94" s="84"/>
+      <c r="O94" s="84"/>
+      <c r="R94" s="86"/>
+      <c r="S94" s="86"/>
+      <c r="T94" s="86"/>
     </row>
     <row r="95" spans="1:23" ht="25.5" customHeight="1">
-      <c r="L95" s="95"/>
-      <c r="M95" s="95"/>
-      <c r="N95" s="95"/>
-      <c r="O95" s="95"/>
-      <c r="R95" s="97"/>
-      <c r="S95" s="97"/>
-      <c r="T95" s="97"/>
-    </row>
-    <row r="96" spans="1:23" ht="61.5">
+      <c r="L95" s="84"/>
+      <c r="M95" s="84"/>
+      <c r="N95" s="84"/>
+      <c r="O95" s="84"/>
+      <c r="R95" s="86"/>
+      <c r="S95" s="86"/>
+      <c r="T95" s="86"/>
+    </row>
+    <row r="96" spans="1:23" ht="61.2">
       <c r="F96" s="22"/>
       <c r="G96" s="9"/>
       <c r="H96" s="21"/>
@@ -3641,7 +3693,9 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="96">
+  <mergeCells count="100">
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="D73:J73"/>
     <mergeCell ref="M73:S73"/>
@@ -3658,7 +3712,6 @@
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="I31:M31"/>
     <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D41:G41"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O50:R50"/>
     <mergeCell ref="O32:R32"/>
@@ -3669,8 +3722,15 @@
     <mergeCell ref="O24:R24"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="O30:R30"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="L44:N44"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D23:I23"/>
     <mergeCell ref="I27:M27"/>
@@ -3682,50 +3742,42 @@
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="D26:G26"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="D90:N90"/>
+    <mergeCell ref="D84:I84"/>
     <mergeCell ref="S53:U53"/>
     <mergeCell ref="O81:R81"/>
     <mergeCell ref="O80:R80"/>
     <mergeCell ref="D72:I72"/>
+    <mergeCell ref="O88:R88"/>
+    <mergeCell ref="O86:R86"/>
+    <mergeCell ref="O84:R84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="D86:N86"/>
+    <mergeCell ref="D88:N88"/>
+    <mergeCell ref="C2:U2"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="Z5:AH6"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="M72:S72"/>
+    <mergeCell ref="E80:N80"/>
+    <mergeCell ref="E81:N81"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="C77:U77"/>
     <mergeCell ref="S37:U37"/>
     <mergeCell ref="O48:R48"/>
     <mergeCell ref="O47:R47"/>
     <mergeCell ref="O46:R46"/>
     <mergeCell ref="O45:R45"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="O90:R90"/>
-    <mergeCell ref="O88:R88"/>
-    <mergeCell ref="O86:R86"/>
-    <mergeCell ref="O84:R84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="D86:N86"/>
-    <mergeCell ref="D88:N88"/>
-    <mergeCell ref="D90:N90"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="O82:R82"/>
-    <mergeCell ref="M72:S72"/>
-    <mergeCell ref="E80:N80"/>
-    <mergeCell ref="E81:N81"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="C77:U77"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="C2:U2"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="Z5:AH6"/>
     <mergeCell ref="L93:O95"/>
     <mergeCell ref="R93:T95"/>
     <mergeCell ref="L45:N45"/>
@@ -3735,9 +3787,13 @@
     <mergeCell ref="L10:Q10"/>
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:J10"/>
     <mergeCell ref="Q8:U8"/>
     <mergeCell ref="D52:M52"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O90:R90"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/IERP_RH/resources/templates/nominaTemplate.xlsx
+++ b/IERP_RH/resources/templates/nominaTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Chavez\Documents\NetBeansProjects\IERP-EQ3-RH-8B\IERP_RH\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67927FB4-DC6E-4650-9C74-C82A134DBA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BDA492-D899-498A-9C65-E6BE88452892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="660" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo Nómina" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Empresa:</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Fecha Pago</t>
+  </si>
+  <si>
+    <t>2021-05-01</t>
   </si>
 </sst>
 </file>
@@ -275,12 +278,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="30"/>
-      <color rgb="FF319B9B"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="24"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -308,14 +305,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="26"/>
-      <color indexed="8"/>
+      <sz val="30"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="26"/>
-      <color theme="6" tint="0.79998168889431442"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -551,7 +554,7 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -685,7 +688,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,15 +712,35 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -730,39 +753,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -785,17 +784,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -803,50 +792,72 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="169" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -857,21 +868,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -886,28 +882,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1255,8 +1230,8 @@
   </sheetPr>
   <dimension ref="A1:AK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="24.6"/>
@@ -1289,27 +1264,27 @@
     <row r="1" spans="1:37" ht="335.25" customHeight="1"/>
     <row r="2" spans="1:37" ht="96" customHeight="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
       <c r="V2" s="48"/>
     </row>
     <row r="3" spans="1:37" ht="63.75" customHeight="1" thickBot="1">
@@ -1387,15 +1362,15 @@
       <c r="U5" s="58"/>
       <c r="V5" s="74"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
@@ -1403,38 +1378,38 @@
     <row r="6" spans="1:37" ht="60" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="55"/>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="93"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="96"/>
       <c r="K6" s="58"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="90"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="96"/>
       <c r="V6" s="74"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104"/>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="106"/>
+      <c r="AD6" s="106"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="106"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
@@ -1472,27 +1447,27 @@
     <row r="8" spans="1:37" ht="60" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="55"/>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="96"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="99"/>
       <c r="K8" s="58"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="93"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="96"/>
       <c r="P8" s="58"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="93"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="96"/>
       <c r="V8" s="74"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
@@ -1549,21 +1524,21 @@
       <c r="D10" s="98"/>
       <c r="E10" s="99"/>
       <c r="F10" s="76"/>
-      <c r="G10" s="82"/>
+      <c r="G10" s="86"/>
       <c r="H10" s="58"/>
       <c r="I10" s="101"/>
       <c r="J10" s="101"/>
       <c r="K10" s="58"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="93"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="96"/>
       <c r="R10" s="58"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="93"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="96"/>
       <c r="V10" s="74"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -1646,39 +1621,39 @@
     </row>
     <row r="14" spans="1:37" ht="53.25" customHeight="1">
       <c r="B14" s="55"/>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="132" t="s">
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="133">
-        <v>11169</v>
-      </c>
-      <c r="J14" s="134" t="s">
+      <c r="I14" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="135">
-        <v>37467</v>
-      </c>
-      <c r="L14" s="135"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="127" t="s">
+      <c r="K14" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="102"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="128"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="129" t="s">
+      <c r="O14" s="127"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="T14" s="130"/>
-      <c r="U14" s="83"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="28"/>
     </row>
     <row r="15" spans="1:37" ht="13.5" customHeight="1" thickBot="1">
@@ -1836,12 +1811,12 @@
     <row r="22" spans="2:37" ht="44.4">
       <c r="B22" s="39"/>
       <c r="C22" s="41"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="126"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="123"/>
       <c r="H22" s="65"/>
       <c r="I22" s="65"/>
       <c r="J22" s="65"/>
@@ -1849,12 +1824,12 @@
       <c r="L22" s="65"/>
       <c r="M22" s="65"/>
       <c r="N22" s="65"/>
-      <c r="O22" s="121" t="s">
+      <c r="O22" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="121"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
       <c r="S22" s="23"/>
       <c r="T22" s="23"/>
       <c r="U22" s="23"/>
@@ -1915,10 +1890,10 @@
       <c r="L24" s="117"/>
       <c r="M24" s="117"/>
       <c r="N24" s="43"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
       <c r="U24" s="23"/>
@@ -1948,12 +1923,12 @@
       <c r="L25" s="117"/>
       <c r="M25" s="117"/>
       <c r="N25" s="43"/>
-      <c r="O25" s="103">
+      <c r="O25" s="105">
         <v>0</v>
       </c>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
       <c r="S25" s="23"/>
       <c r="T25" s="23"/>
       <c r="U25" s="23"/>
@@ -1983,12 +1958,12 @@
       <c r="L26" s="117"/>
       <c r="M26" s="117"/>
       <c r="N26" s="43"/>
-      <c r="O26" s="103">
+      <c r="O26" s="105">
         <v>0</v>
       </c>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
       <c r="U26" s="23"/>
@@ -2018,12 +1993,12 @@
       <c r="L27" s="117"/>
       <c r="M27" s="117"/>
       <c r="N27" s="43"/>
-      <c r="O27" s="103">
+      <c r="O27" s="105">
         <v>0</v>
       </c>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
       <c r="S27" s="23"/>
       <c r="T27" s="23"/>
       <c r="U27" s="23"/>
@@ -2045,12 +2020,12 @@
       <c r="L28" s="117"/>
       <c r="M28" s="117"/>
       <c r="N28" s="43"/>
-      <c r="O28" s="103">
+      <c r="O28" s="105">
         <v>0</v>
       </c>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
       <c r="S28" s="23"/>
       <c r="T28" s="23"/>
       <c r="U28" s="23"/>
@@ -2072,12 +2047,12 @@
       <c r="L29" s="117"/>
       <c r="M29" s="117"/>
       <c r="N29" s="43"/>
-      <c r="O29" s="103">
+      <c r="O29" s="105">
         <v>0</v>
       </c>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
       <c r="S29" s="23"/>
       <c r="T29" s="23"/>
       <c r="U29" s="23"/>
@@ -2099,12 +2074,12 @@
       <c r="L30" s="117"/>
       <c r="M30" s="117"/>
       <c r="N30" s="43"/>
-      <c r="O30" s="103">
+      <c r="O30" s="105">
         <v>0</v>
       </c>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
       <c r="S30" s="23"/>
       <c r="T30" s="23"/>
       <c r="U30" s="23"/>
@@ -2126,12 +2101,12 @@
       <c r="L31" s="117"/>
       <c r="M31" s="117"/>
       <c r="N31" s="43"/>
-      <c r="O31" s="103">
+      <c r="O31" s="105">
         <v>0</v>
       </c>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
       <c r="S31" s="23"/>
       <c r="T31" s="23"/>
       <c r="U31" s="23"/>
@@ -2153,12 +2128,12 @@
       <c r="L32" s="117"/>
       <c r="M32" s="117"/>
       <c r="N32" s="43"/>
-      <c r="O32" s="103">
+      <c r="O32" s="105">
         <v>0</v>
       </c>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
       <c r="U32" s="23"/>
@@ -2180,12 +2155,12 @@
       <c r="L33" s="117"/>
       <c r="M33" s="117"/>
       <c r="N33" s="43"/>
-      <c r="O33" s="103">
+      <c r="O33" s="105">
         <v>0</v>
       </c>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
       <c r="S33" s="23"/>
       <c r="T33" s="23"/>
       <c r="U33" s="23"/>
@@ -2207,12 +2182,12 @@
       <c r="L34" s="117"/>
       <c r="M34" s="117"/>
       <c r="N34" s="43"/>
-      <c r="O34" s="103">
+      <c r="O34" s="105">
         <v>0</v>
       </c>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
       <c r="S34" s="23"/>
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
@@ -2284,12 +2259,12 @@
       <c r="R37" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="S37" s="111">
+      <c r="S37" s="110">
         <f>SUM(O22:R35)</f>
         <v>0</v>
       </c>
-      <c r="T37" s="111"/>
-      <c r="U37" s="111"/>
+      <c r="T37" s="110"/>
+      <c r="U37" s="110"/>
       <c r="V37" s="42"/>
     </row>
     <row r="38" spans="2:22" ht="15" customHeight="1">
@@ -2418,23 +2393,23 @@
     <row r="43" spans="2:22" ht="51.75" customHeight="1">
       <c r="B43" s="39"/>
       <c r="C43" s="41"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
       <c r="J43" s="23"/>
       <c r="K43" s="50"/>
-      <c r="L43" s="87" t="s">
+      <c r="L43" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="110"/>
+      <c r="P43" s="110"/>
+      <c r="Q43" s="110"/>
+      <c r="R43" s="110"/>
       <c r="S43" s="23"/>
       <c r="T43" s="23"/>
       <c r="U43" s="23"/>
@@ -2451,15 +2426,15 @@
       <c r="I44" s="115"/>
       <c r="J44" s="43"/>
       <c r="K44" s="50"/>
-      <c r="L44" s="87" t="s">
+      <c r="L44" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="110"/>
+      <c r="P44" s="110"/>
+      <c r="Q44" s="110"/>
+      <c r="R44" s="110"/>
       <c r="S44" s="23"/>
       <c r="T44" s="23"/>
       <c r="U44" s="23"/>
@@ -2476,15 +2451,15 @@
       <c r="I45" s="115"/>
       <c r="J45" s="43"/>
       <c r="K45" s="50"/>
-      <c r="L45" s="87" t="s">
+      <c r="L45" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="113"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="110"/>
       <c r="S45" s="23"/>
       <c r="T45" s="23"/>
       <c r="U45" s="23"/>
@@ -2501,15 +2476,15 @@
       <c r="I46" s="115"/>
       <c r="J46" s="43"/>
       <c r="K46" s="50"/>
-      <c r="L46" s="87" t="s">
+      <c r="L46" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="113"/>
-      <c r="P46" s="113"/>
-      <c r="Q46" s="113"/>
-      <c r="R46" s="113"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="110"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110"/>
       <c r="S46" s="23"/>
       <c r="T46" s="23"/>
       <c r="U46" s="23"/>
@@ -2526,15 +2501,15 @@
       <c r="I47" s="115"/>
       <c r="J47" s="43"/>
       <c r="K47" s="51"/>
-      <c r="L47" s="87" t="s">
+      <c r="L47" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="113"/>
-      <c r="P47" s="113"/>
-      <c r="Q47" s="113"/>
-      <c r="R47" s="113"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="110"/>
       <c r="S47" s="23"/>
       <c r="T47" s="23"/>
       <c r="U47" s="23"/>
@@ -2556,13 +2531,13 @@
       <c r="N48" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O48" s="112">
+      <c r="O48" s="111">
         <f>SUM(O43:R47)</f>
         <v>0</v>
       </c>
-      <c r="P48" s="112"/>
-      <c r="Q48" s="112"/>
-      <c r="R48" s="112"/>
+      <c r="P48" s="111"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="111"/>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
       <c r="U48" s="23"/>
@@ -2602,13 +2577,13 @@
       <c r="I50" s="100"/>
       <c r="J50" s="43"/>
       <c r="K50" s="63"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="120"/>
+      <c r="L50" s="93"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="124"/>
+      <c r="P50" s="124"/>
+      <c r="Q50" s="124"/>
+      <c r="R50" s="124"/>
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
       <c r="U50" s="23"/>
@@ -2635,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="S51" s="114">
-        <f>SUM(O43:R47,O50:R53)</f>
+        <f>SUM(O43:R47)</f>
         <v>0</v>
       </c>
       <c r="T51" s="114"/>
@@ -2685,12 +2660,12 @@
       <c r="R53" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="S53" s="110">
+      <c r="S53" s="112">
         <f>S37-S51</f>
         <v>0</v>
       </c>
-      <c r="T53" s="110"/>
-      <c r="U53" s="110"/>
+      <c r="T53" s="112"/>
+      <c r="U53" s="112"/>
       <c r="V53" s="42"/>
     </row>
     <row r="54" spans="2:22" ht="22.5" customHeight="1">
@@ -3110,26 +3085,26 @@
     <row r="72" spans="1:23" ht="37.200000000000003">
       <c r="B72" s="39"/>
       <c r="C72" s="23"/>
-      <c r="D72" s="87" t="s">
+      <c r="D72" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
-      <c r="H72" s="87"/>
-      <c r="I72" s="87"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="93"/>
       <c r="J72" s="41"/>
       <c r="K72" s="41"/>
       <c r="L72" s="41"/>
-      <c r="M72" s="87" t="s">
+      <c r="M72" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="N72" s="87"/>
-      <c r="O72" s="87"/>
-      <c r="P72" s="87"/>
-      <c r="Q72" s="87"/>
-      <c r="R72" s="87"/>
-      <c r="S72" s="87"/>
+      <c r="N72" s="93"/>
+      <c r="O72" s="93"/>
+      <c r="P72" s="93"/>
+      <c r="Q72" s="93"/>
+      <c r="R72" s="93"/>
+      <c r="S72" s="93"/>
       <c r="T72" s="23"/>
       <c r="U72" s="23"/>
       <c r="V72" s="42"/>
@@ -3137,26 +3112,26 @@
     <row r="73" spans="1:23" ht="57.75" customHeight="1">
       <c r="B73" s="39"/>
       <c r="C73" s="23"/>
-      <c r="D73" s="123" t="s">
+      <c r="D73" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="123"/>
-      <c r="F73" s="123"/>
-      <c r="G73" s="123"/>
-      <c r="H73" s="123"/>
-      <c r="I73" s="123"/>
-      <c r="J73" s="123"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="130"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="130"/>
+      <c r="I73" s="130"/>
+      <c r="J73" s="130"/>
       <c r="K73" s="23"/>
       <c r="L73" s="67"/>
-      <c r="M73" s="123" t="s">
+      <c r="M73" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="N73" s="123"/>
-      <c r="O73" s="123"/>
-      <c r="P73" s="123"/>
-      <c r="Q73" s="123"/>
-      <c r="R73" s="123"/>
-      <c r="S73" s="123"/>
+      <c r="N73" s="130"/>
+      <c r="O73" s="130"/>
+      <c r="P73" s="130"/>
+      <c r="Q73" s="130"/>
+      <c r="R73" s="130"/>
+      <c r="S73" s="130"/>
       <c r="T73" s="23"/>
       <c r="U73" s="23"/>
       <c r="V73" s="42"/>
@@ -3212,25 +3187,25 @@
     <row r="77" spans="1:23" ht="81" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="58"/>
-      <c r="C77" s="108"/>
-      <c r="D77" s="108"/>
-      <c r="E77" s="108"/>
-      <c r="F77" s="108"/>
-      <c r="G77" s="108"/>
-      <c r="H77" s="108"/>
-      <c r="I77" s="108"/>
-      <c r="J77" s="108"/>
-      <c r="K77" s="108"/>
-      <c r="L77" s="108"/>
-      <c r="M77" s="108"/>
-      <c r="N77" s="108"/>
-      <c r="O77" s="108"/>
-      <c r="P77" s="108"/>
-      <c r="Q77" s="108"/>
-      <c r="R77" s="108"/>
-      <c r="S77" s="108"/>
-      <c r="T77" s="108"/>
-      <c r="U77" s="108"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="109"/>
+      <c r="E77" s="109"/>
+      <c r="F77" s="109"/>
+      <c r="G77" s="109"/>
+      <c r="H77" s="109"/>
+      <c r="I77" s="109"/>
+      <c r="J77" s="109"/>
+      <c r="K77" s="109"/>
+      <c r="L77" s="109"/>
+      <c r="M77" s="109"/>
+      <c r="N77" s="109"/>
+      <c r="O77" s="109"/>
+      <c r="P77" s="109"/>
+      <c r="Q77" s="109"/>
+      <c r="R77" s="109"/>
+      <c r="S77" s="109"/>
+      <c r="T77" s="109"/>
+      <c r="U77" s="109"/>
       <c r="V77" s="58"/>
       <c r="W77" s="2"/>
     </row>
@@ -3289,20 +3264,20 @@
       <c r="B80" s="58"/>
       <c r="C80" s="58"/>
       <c r="D80" s="59"/>
-      <c r="E80" s="107"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="107"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="107"/>
-      <c r="J80" s="107"/>
-      <c r="K80" s="107"/>
-      <c r="L80" s="107"/>
-      <c r="M80" s="107"/>
-      <c r="N80" s="107"/>
-      <c r="O80" s="106"/>
-      <c r="P80" s="106"/>
-      <c r="Q80" s="106"/>
-      <c r="R80" s="106"/>
+      <c r="E80" s="108"/>
+      <c r="F80" s="108"/>
+      <c r="G80" s="108"/>
+      <c r="H80" s="108"/>
+      <c r="I80" s="108"/>
+      <c r="J80" s="108"/>
+      <c r="K80" s="108"/>
+      <c r="L80" s="108"/>
+      <c r="M80" s="108"/>
+      <c r="N80" s="108"/>
+      <c r="O80" s="103"/>
+      <c r="P80" s="103"/>
+      <c r="Q80" s="103"/>
+      <c r="R80" s="103"/>
       <c r="S80" s="58"/>
       <c r="T80" s="58"/>
       <c r="U80" s="58"/>
@@ -3314,20 +3289,20 @@
       <c r="B81" s="58"/>
       <c r="C81" s="58"/>
       <c r="D81" s="59"/>
-      <c r="E81" s="107"/>
-      <c r="F81" s="107"/>
-      <c r="G81" s="107"/>
-      <c r="H81" s="107"/>
-      <c r="I81" s="107"/>
-      <c r="J81" s="107"/>
-      <c r="K81" s="107"/>
-      <c r="L81" s="107"/>
-      <c r="M81" s="107"/>
-      <c r="N81" s="107"/>
-      <c r="O81" s="106"/>
-      <c r="P81" s="106"/>
-      <c r="Q81" s="106"/>
-      <c r="R81" s="106"/>
+      <c r="E81" s="108"/>
+      <c r="F81" s="108"/>
+      <c r="G81" s="108"/>
+      <c r="H81" s="108"/>
+      <c r="I81" s="108"/>
+      <c r="J81" s="108"/>
+      <c r="K81" s="108"/>
+      <c r="L81" s="108"/>
+      <c r="M81" s="108"/>
+      <c r="N81" s="108"/>
+      <c r="O81" s="103"/>
+      <c r="P81" s="103"/>
+      <c r="Q81" s="103"/>
+      <c r="R81" s="103"/>
       <c r="S81" s="58"/>
       <c r="T81" s="58"/>
       <c r="U81" s="58"/>
@@ -3349,10 +3324,10 @@
       <c r="L82" s="58"/>
       <c r="M82" s="58"/>
       <c r="N82" s="61"/>
-      <c r="O82" s="106"/>
-      <c r="P82" s="106"/>
-      <c r="Q82" s="106"/>
-      <c r="R82" s="106"/>
+      <c r="O82" s="103"/>
+      <c r="P82" s="103"/>
+      <c r="Q82" s="103"/>
+      <c r="R82" s="103"/>
       <c r="S82" s="58"/>
       <c r="T82" s="58"/>
       <c r="U82" s="58"/>
@@ -3388,21 +3363,21 @@
       <c r="A84" s="2"/>
       <c r="B84" s="58"/>
       <c r="C84" s="58"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108"/>
-      <c r="G84" s="108"/>
-      <c r="H84" s="108"/>
-      <c r="I84" s="108"/>
-      <c r="J84" s="109"/>
-      <c r="K84" s="109"/>
-      <c r="L84" s="109"/>
-      <c r="M84" s="109"/>
-      <c r="N84" s="109"/>
-      <c r="O84" s="106"/>
-      <c r="P84" s="106"/>
-      <c r="Q84" s="106"/>
-      <c r="R84" s="106"/>
+      <c r="D84" s="109"/>
+      <c r="E84" s="109"/>
+      <c r="F84" s="109"/>
+      <c r="G84" s="109"/>
+      <c r="H84" s="109"/>
+      <c r="I84" s="109"/>
+      <c r="J84" s="113"/>
+      <c r="K84" s="113"/>
+      <c r="L84" s="113"/>
+      <c r="M84" s="113"/>
+      <c r="N84" s="113"/>
+      <c r="O84" s="103"/>
+      <c r="P84" s="103"/>
+      <c r="Q84" s="103"/>
+      <c r="R84" s="103"/>
       <c r="S84" s="58"/>
       <c r="T84" s="58"/>
       <c r="U84" s="58"/>
@@ -3438,21 +3413,21 @@
       <c r="A86" s="2"/>
       <c r="B86" s="58"/>
       <c r="C86" s="58"/>
-      <c r="D86" s="107"/>
-      <c r="E86" s="107"/>
-      <c r="F86" s="107"/>
-      <c r="G86" s="107"/>
-      <c r="H86" s="107"/>
-      <c r="I86" s="107"/>
-      <c r="J86" s="107"/>
-      <c r="K86" s="107"/>
-      <c r="L86" s="107"/>
-      <c r="M86" s="107"/>
-      <c r="N86" s="107"/>
-      <c r="O86" s="106"/>
-      <c r="P86" s="106"/>
-      <c r="Q86" s="106"/>
-      <c r="R86" s="106"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="108"/>
+      <c r="F86" s="108"/>
+      <c r="G86" s="108"/>
+      <c r="H86" s="108"/>
+      <c r="I86" s="108"/>
+      <c r="J86" s="108"/>
+      <c r="K86" s="108"/>
+      <c r="L86" s="108"/>
+      <c r="M86" s="108"/>
+      <c r="N86" s="108"/>
+      <c r="O86" s="103"/>
+      <c r="P86" s="103"/>
+      <c r="Q86" s="103"/>
+      <c r="R86" s="103"/>
       <c r="S86" s="58"/>
       <c r="T86" s="58"/>
       <c r="U86" s="58"/>
@@ -3488,21 +3463,21 @@
       <c r="A88" s="2"/>
       <c r="B88" s="58"/>
       <c r="C88" s="58"/>
-      <c r="D88" s="107"/>
-      <c r="E88" s="107"/>
-      <c r="F88" s="107"/>
-      <c r="G88" s="107"/>
-      <c r="H88" s="107"/>
-      <c r="I88" s="107"/>
-      <c r="J88" s="107"/>
-      <c r="K88" s="107"/>
-      <c r="L88" s="107"/>
-      <c r="M88" s="107"/>
-      <c r="N88" s="107"/>
-      <c r="O88" s="106"/>
-      <c r="P88" s="106"/>
-      <c r="Q88" s="106"/>
-      <c r="R88" s="106"/>
+      <c r="D88" s="108"/>
+      <c r="E88" s="108"/>
+      <c r="F88" s="108"/>
+      <c r="G88" s="108"/>
+      <c r="H88" s="108"/>
+      <c r="I88" s="108"/>
+      <c r="J88" s="108"/>
+      <c r="K88" s="108"/>
+      <c r="L88" s="108"/>
+      <c r="M88" s="108"/>
+      <c r="N88" s="108"/>
+      <c r="O88" s="103"/>
+      <c r="P88" s="103"/>
+      <c r="Q88" s="103"/>
+      <c r="R88" s="103"/>
       <c r="S88" s="58"/>
       <c r="T88" s="58"/>
       <c r="U88" s="58"/>
@@ -3538,21 +3513,21 @@
       <c r="A90" s="2"/>
       <c r="B90" s="58"/>
       <c r="C90" s="58"/>
-      <c r="D90" s="107"/>
-      <c r="E90" s="107"/>
-      <c r="F90" s="107"/>
-      <c r="G90" s="107"/>
-      <c r="H90" s="107"/>
-      <c r="I90" s="107"/>
-      <c r="J90" s="107"/>
-      <c r="K90" s="107"/>
-      <c r="L90" s="107"/>
-      <c r="M90" s="107"/>
-      <c r="N90" s="107"/>
-      <c r="O90" s="106"/>
-      <c r="P90" s="106"/>
-      <c r="Q90" s="106"/>
-      <c r="R90" s="106"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="108"/>
+      <c r="F90" s="108"/>
+      <c r="G90" s="108"/>
+      <c r="H90" s="108"/>
+      <c r="I90" s="108"/>
+      <c r="J90" s="108"/>
+      <c r="K90" s="108"/>
+      <c r="L90" s="108"/>
+      <c r="M90" s="108"/>
+      <c r="N90" s="108"/>
+      <c r="O90" s="103"/>
+      <c r="P90" s="103"/>
+      <c r="Q90" s="103"/>
+      <c r="R90" s="103"/>
       <c r="S90" s="58"/>
       <c r="T90" s="58"/>
       <c r="U90" s="58"/>
@@ -3620,35 +3595,35 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="84"/>
-      <c r="M93" s="84"/>
-      <c r="N93" s="84"/>
-      <c r="O93" s="84"/>
+      <c r="L93" s="90"/>
+      <c r="M93" s="90"/>
+      <c r="N93" s="90"/>
+      <c r="O93" s="90"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
-      <c r="R93" s="85"/>
-      <c r="S93" s="86"/>
-      <c r="T93" s="86"/>
+      <c r="R93" s="91"/>
+      <c r="S93" s="92"/>
+      <c r="T93" s="92"/>
       <c r="U93" s="5"/>
       <c r="V93" s="5"/>
     </row>
     <row r="94" spans="1:23" ht="25.5" customHeight="1">
-      <c r="L94" s="84"/>
-      <c r="M94" s="84"/>
-      <c r="N94" s="84"/>
-      <c r="O94" s="84"/>
-      <c r="R94" s="86"/>
-      <c r="S94" s="86"/>
-      <c r="T94" s="86"/>
+      <c r="L94" s="90"/>
+      <c r="M94" s="90"/>
+      <c r="N94" s="90"/>
+      <c r="O94" s="90"/>
+      <c r="R94" s="92"/>
+      <c r="S94" s="92"/>
+      <c r="T94" s="92"/>
     </row>
     <row r="95" spans="1:23" ht="25.5" customHeight="1">
-      <c r="L95" s="84"/>
-      <c r="M95" s="84"/>
-      <c r="N95" s="84"/>
-      <c r="O95" s="84"/>
-      <c r="R95" s="86"/>
-      <c r="S95" s="86"/>
-      <c r="T95" s="86"/>
+      <c r="L95" s="90"/>
+      <c r="M95" s="90"/>
+      <c r="N95" s="90"/>
+      <c r="O95" s="90"/>
+      <c r="R95" s="92"/>
+      <c r="S95" s="92"/>
+      <c r="T95" s="92"/>
     </row>
     <row r="96" spans="1:23" ht="61.2">
       <c r="F96" s="22"/>
